--- a/data/CAST_MACH_CLEAN.xlsx
+++ b/data/CAST_MACH_CLEAN.xlsx
@@ -368,12 +368,12 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>дата проведения</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>смена</t>
+          <t>SHIFT</t>
         </is>
       </c>
     </row>
@@ -382,7 +382,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>41365</v>
@@ -396,10 +396,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>41373</v>
+        <v>41367</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -410,10 +410,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>41381</v>
+        <v>41369</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
@@ -424,10 +424,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>41389</v>
+        <v>41371</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
@@ -438,10 +438,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>41397</v>
+        <v>41373</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
@@ -452,10 +452,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>41405</v>
+        <v>41375</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
@@ -466,10 +466,10 @@
         <v>41</v>
       </c>
       <c r="B8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>41413</v>
+        <v>41377</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
@@ -480,10 +480,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>41421</v>
+        <v>41379</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
@@ -494,10 +494,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>41429</v>
+        <v>41381</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>41</v>
       </c>
       <c r="B11" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>41437</v>
+        <v>41383</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
@@ -522,10 +522,10 @@
         <v>41</v>
       </c>
       <c r="B12" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>41445</v>
+        <v>41385</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
@@ -536,10 +536,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>41453</v>
+        <v>41387</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
@@ -550,10 +550,10 @@
         <v>41</v>
       </c>
       <c r="B14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>41367</v>
+        <v>41389</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
@@ -564,10 +564,10 @@
         <v>41</v>
       </c>
       <c r="B15" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>41375</v>
+        <v>41391</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
@@ -578,10 +578,10 @@
         <v>41</v>
       </c>
       <c r="B16" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>41383</v>
+        <v>41393</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
@@ -592,10 +592,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>41391</v>
+        <v>41395</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
@@ -606,10 +606,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>41399</v>
+        <v>41397</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>41407</v>
+        <v>41399</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
@@ -634,10 +634,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>41415</v>
+        <v>41401</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
@@ -648,10 +648,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>41423</v>
+        <v>41403</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
@@ -662,10 +662,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>41431</v>
+        <v>41405</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>41439</v>
+        <v>41407</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
@@ -690,10 +690,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>41447</v>
+        <v>41409</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
@@ -704,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>41455</v>
+        <v>41411</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
@@ -718,10 +718,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>41365</v>
+        <v>41413</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>41</v>
       </c>
       <c r="B27" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>41367</v>
+        <v>41415</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
@@ -746,10 +746,10 @@
         <v>41</v>
       </c>
       <c r="B28" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>41369</v>
+        <v>41417</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
@@ -760,10 +760,10 @@
         <v>41</v>
       </c>
       <c r="B29" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>41372</v>
+        <v>41419</v>
       </c>
       <c r="D29" s="0">
         <v>2</v>
@@ -774,10 +774,10 @@
         <v>41</v>
       </c>
       <c r="B30" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>41374</v>
+        <v>41421</v>
       </c>
       <c r="D30" s="0">
         <v>2</v>
@@ -788,10 +788,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>41376</v>
+        <v>41423</v>
       </c>
       <c r="D31" s="0">
         <v>2</v>
@@ -802,10 +802,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>41379</v>
+        <v>41425</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
@@ -816,10 +816,10 @@
         <v>41</v>
       </c>
       <c r="B33" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>41381</v>
+        <v>41427</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
@@ -830,10 +830,10 @@
         <v>41</v>
       </c>
       <c r="B34" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>41383</v>
+        <v>41429</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
@@ -844,10 +844,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>41386</v>
+        <v>41431</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
@@ -858,10 +858,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>41388</v>
+        <v>41433</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
@@ -872,10 +872,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>41390</v>
+        <v>41435</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
@@ -886,10 +886,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>41393</v>
+        <v>41437</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
@@ -900,10 +900,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>41395</v>
+        <v>41439</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>41397</v>
+        <v>41441</v>
       </c>
       <c r="D40" s="0">
         <v>2</v>
@@ -928,10 +928,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>41400</v>
+        <v>41443</v>
       </c>
       <c r="D41" s="0">
         <v>2</v>
@@ -942,10 +942,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>41402</v>
+        <v>41445</v>
       </c>
       <c r="D42" s="0">
         <v>2</v>
@@ -956,10 +956,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>41404</v>
+        <v>41447</v>
       </c>
       <c r="D43" s="0">
         <v>2</v>
@@ -970,10 +970,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>41407</v>
+        <v>41449</v>
       </c>
       <c r="D44" s="0">
         <v>2</v>
@@ -984,10 +984,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>41409</v>
+        <v>41451</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
@@ -998,10 +998,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>41411</v>
+        <v>41453</v>
       </c>
       <c r="D46" s="0">
         <v>2</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>41414</v>
+        <v>41365</v>
       </c>
       <c r="D47" s="0">
         <v>2</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>41416</v>
+        <v>41367</v>
       </c>
       <c r="D48" s="0">
         <v>2</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>41418</v>
+        <v>41369</v>
       </c>
       <c r="D49" s="0">
         <v>2</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>41421</v>
+        <v>41371</v>
       </c>
       <c r="D50" s="0">
         <v>2</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>41423</v>
+        <v>41373</v>
       </c>
       <c r="D51" s="0">
         <v>2</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>41425</v>
+        <v>41375</v>
       </c>
       <c r="D52" s="0">
         <v>2</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>41428</v>
+        <v>41377</v>
       </c>
       <c r="D53" s="0">
         <v>2</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B54" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>41430</v>
+        <v>41379</v>
       </c>
       <c r="D54" s="0">
         <v>2</v>
@@ -1121,13 +1121,13 @@
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>41432</v>
+        <v>41381</v>
       </c>
       <c r="D55" s="0">
         <v>2</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>41435</v>
+        <v>41383</v>
       </c>
       <c r="D56" s="0">
         <v>2</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B57" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>41437</v>
+        <v>41385</v>
       </c>
       <c r="D57" s="0">
         <v>2</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B58" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>41439</v>
+        <v>41387</v>
       </c>
       <c r="D58" s="0">
         <v>2</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B59" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>41442</v>
+        <v>41389</v>
       </c>
       <c r="D59" s="0">
         <v>2</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B60" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>41444</v>
+        <v>41391</v>
       </c>
       <c r="D60" s="0">
         <v>2</v>
@@ -1205,13 +1205,13 @@
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B61" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
-        <v>41446</v>
+        <v>41393</v>
       </c>
       <c r="D61" s="0">
         <v>2</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B62" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>41449</v>
+        <v>41395</v>
       </c>
       <c r="D62" s="0">
         <v>2</v>
@@ -1233,13 +1233,13 @@
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B63" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>41451</v>
+        <v>41397</v>
       </c>
       <c r="D63" s="0">
         <v>2</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B64" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>41453</v>
+        <v>41399</v>
       </c>
       <c r="D64" s="0">
         <v>2</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65" s="0">
         <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>41365</v>
+        <v>41401</v>
       </c>
       <c r="D65" s="0">
         <v>2</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B66" s="0">
         <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>41367</v>
+        <v>41403</v>
       </c>
       <c r="D66" s="0">
         <v>2</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B67" s="0">
         <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>41369</v>
+        <v>41405</v>
       </c>
       <c r="D67" s="0">
         <v>2</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B68" s="0">
         <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>41371</v>
+        <v>41407</v>
       </c>
       <c r="D68" s="0">
         <v>2</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" s="0">
         <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>41373</v>
+        <v>41409</v>
       </c>
       <c r="D69" s="0">
         <v>2</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" s="0">
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>41375</v>
+        <v>41411</v>
       </c>
       <c r="D70" s="0">
         <v>2</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B71" s="0">
         <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>41377</v>
+        <v>41413</v>
       </c>
       <c r="D71" s="0">
         <v>2</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B72" s="0">
         <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>41379</v>
+        <v>41415</v>
       </c>
       <c r="D72" s="0">
         <v>2</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B73" s="0">
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>41381</v>
+        <v>41417</v>
       </c>
       <c r="D73" s="0">
         <v>2</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B74" s="0">
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>41383</v>
+        <v>41419</v>
       </c>
       <c r="D74" s="0">
         <v>2</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B75" s="0">
         <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>41385</v>
+        <v>41421</v>
       </c>
       <c r="D75" s="0">
         <v>2</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B76" s="0">
         <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>41387</v>
+        <v>41423</v>
       </c>
       <c r="D76" s="0">
         <v>2</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" s="0">
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>41389</v>
+        <v>41425</v>
       </c>
       <c r="D77" s="0">
         <v>2</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" s="0">
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>41391</v>
+        <v>41427</v>
       </c>
       <c r="D78" s="0">
         <v>2</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B79" s="0">
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>41393</v>
+        <v>41429</v>
       </c>
       <c r="D79" s="0">
         <v>2</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B80" s="0">
         <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>41395</v>
+        <v>41431</v>
       </c>
       <c r="D80" s="0">
         <v>2</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B81" s="0">
         <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>41397</v>
+        <v>41433</v>
       </c>
       <c r="D81" s="0">
         <v>2</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" s="0">
         <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>41399</v>
+        <v>41435</v>
       </c>
       <c r="D82" s="0">
         <v>2</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" s="0">
         <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>41401</v>
+        <v>41437</v>
       </c>
       <c r="D83" s="0">
         <v>2</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B84" s="0">
         <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>41403</v>
+        <v>41439</v>
       </c>
       <c r="D84" s="0">
         <v>2</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B85" s="0">
         <v>2</v>
       </c>
       <c r="C85" s="1">
-        <v>41405</v>
+        <v>41441</v>
       </c>
       <c r="D85" s="0">
         <v>2</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" s="0">
         <v>2</v>
       </c>
       <c r="C86" s="1">
-        <v>41407</v>
+        <v>41443</v>
       </c>
       <c r="D86" s="0">
         <v>2</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B87" s="0">
         <v>2</v>
       </c>
       <c r="C87" s="1">
-        <v>41409</v>
+        <v>41445</v>
       </c>
       <c r="D87" s="0">
         <v>2</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88" s="0">
         <v>2</v>
       </c>
       <c r="C88" s="1">
-        <v>41411</v>
+        <v>41447</v>
       </c>
       <c r="D88" s="0">
         <v>2</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B89" s="0">
         <v>2</v>
       </c>
       <c r="C89" s="1">
-        <v>41413</v>
+        <v>41449</v>
       </c>
       <c r="D89" s="0">
         <v>2</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B90" s="0">
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>41415</v>
+        <v>41451</v>
       </c>
       <c r="D90" s="0">
         <v>2</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B91" s="0">
         <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>41417</v>
+        <v>41453</v>
       </c>
       <c r="D91" s="0">
         <v>2</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B92" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>41419</v>
+        <v>41365</v>
       </c>
       <c r="D92" s="0">
         <v>2</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B93" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>41421</v>
+        <v>41369</v>
       </c>
       <c r="D93" s="0">
         <v>2</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B94" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>41423</v>
+        <v>41373</v>
       </c>
       <c r="D94" s="0">
         <v>2</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B95" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>41425</v>
+        <v>41377</v>
       </c>
       <c r="D95" s="0">
         <v>2</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B96" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>41427</v>
+        <v>41381</v>
       </c>
       <c r="D96" s="0">
         <v>2</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B97" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1">
-        <v>41429</v>
+        <v>41385</v>
       </c>
       <c r="D97" s="0">
         <v>2</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B98" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1">
-        <v>41431</v>
+        <v>41389</v>
       </c>
       <c r="D98" s="0">
         <v>2</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B99" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>41433</v>
+        <v>41393</v>
       </c>
       <c r="D99" s="0">
         <v>2</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B100" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>41435</v>
+        <v>41397</v>
       </c>
       <c r="D100" s="0">
         <v>2</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B101" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>41437</v>
+        <v>41401</v>
       </c>
       <c r="D101" s="0">
         <v>2</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B102" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>41439</v>
+        <v>41405</v>
       </c>
       <c r="D102" s="0">
         <v>2</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B103" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>41441</v>
+        <v>41409</v>
       </c>
       <c r="D103" s="0">
         <v>2</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B104" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>41443</v>
+        <v>41413</v>
       </c>
       <c r="D104" s="0">
         <v>2</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B105" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>41445</v>
+        <v>41417</v>
       </c>
       <c r="D105" s="0">
         <v>2</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B106" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>41447</v>
+        <v>41421</v>
       </c>
       <c r="D106" s="0">
         <v>2</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B107" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
-        <v>41449</v>
+        <v>41425</v>
       </c>
       <c r="D107" s="0">
         <v>2</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B108" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>41451</v>
+        <v>41429</v>
       </c>
       <c r="D108" s="0">
         <v>2</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B109" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1">
-        <v>41453</v>
+        <v>41433</v>
       </c>
       <c r="D109" s="0">
         <v>2</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B110" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>41365</v>
+        <v>41437</v>
       </c>
       <c r="D110" s="0">
         <v>2</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B111" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>41365</v>
+        <v>41441</v>
       </c>
       <c r="D111" s="0">
         <v>2</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B112" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>41367</v>
+        <v>41445</v>
       </c>
       <c r="D112" s="0">
         <v>2</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B113" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1">
-        <v>41367</v>
+        <v>41449</v>
       </c>
       <c r="D113" s="0">
         <v>2</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B114" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>41369</v>
+        <v>41453</v>
       </c>
       <c r="D114" s="0">
         <v>2</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B115" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1">
-        <v>41369</v>
+        <v>41457</v>
       </c>
       <c r="D115" s="0">
         <v>2</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B116" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>41371</v>
+        <v>41366</v>
       </c>
       <c r="D116" s="0">
         <v>2</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B117" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
-        <v>41372</v>
+        <v>41370</v>
       </c>
       <c r="D117" s="0">
         <v>2</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B118" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>41373</v>
+        <v>41374</v>
       </c>
       <c r="D118" s="0">
         <v>2</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B119" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1">
-        <v>41374</v>
+        <v>41378</v>
       </c>
       <c r="D119" s="0">
         <v>2</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B120" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>41375</v>
+        <v>41382</v>
       </c>
       <c r="D120" s="0">
         <v>2</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B121" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>41376</v>
+        <v>41386</v>
       </c>
       <c r="D121" s="0">
         <v>2</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B122" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1">
-        <v>41377</v>
+        <v>41390</v>
       </c>
       <c r="D122" s="0">
         <v>2</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B123" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>41379</v>
+        <v>41394</v>
       </c>
       <c r="D123" s="0">
         <v>2</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B124" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>41379</v>
+        <v>41398</v>
       </c>
       <c r="D124" s="0">
         <v>2</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B125" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1">
-        <v>41381</v>
+        <v>41402</v>
       </c>
       <c r="D125" s="0">
         <v>2</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B126" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1">
-        <v>41381</v>
+        <v>41406</v>
       </c>
       <c r="D126" s="0">
         <v>2</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B127" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
-        <v>41383</v>
+        <v>41410</v>
       </c>
       <c r="D127" s="0">
         <v>2</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B128" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1">
-        <v>41383</v>
+        <v>41414</v>
       </c>
       <c r="D128" s="0">
         <v>2</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B129" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="1">
-        <v>41385</v>
+        <v>41418</v>
       </c>
       <c r="D129" s="0">
         <v>2</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B130" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1">
-        <v>41386</v>
+        <v>41422</v>
       </c>
       <c r="D130" s="0">
         <v>2</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B131" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1">
-        <v>41387</v>
+        <v>41426</v>
       </c>
       <c r="D131" s="0">
         <v>2</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B132" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C132" s="1">
-        <v>41388</v>
+        <v>41430</v>
       </c>
       <c r="D132" s="0">
         <v>2</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B133" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1">
-        <v>41389</v>
+        <v>41434</v>
       </c>
       <c r="D133" s="0">
         <v>2</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B134" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1">
-        <v>41390</v>
+        <v>41438</v>
       </c>
       <c r="D134" s="0">
         <v>2</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B135" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
-        <v>41391</v>
+        <v>41442</v>
       </c>
       <c r="D135" s="0">
         <v>2</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B136" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" s="1">
-        <v>41393</v>
+        <v>41446</v>
       </c>
       <c r="D136" s="0">
         <v>2</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B137" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1">
-        <v>41393</v>
+        <v>41450</v>
       </c>
       <c r="D137" s="0">
         <v>2</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B138" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
-        <v>41395</v>
+        <v>41454</v>
       </c>
       <c r="D138" s="0">
         <v>2</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B139" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>41395</v>
+        <v>41458</v>
       </c>
       <c r="D139" s="0">
         <v>2</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B140" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>41397</v>
+        <v>41365</v>
       </c>
       <c r="D140" s="0">
         <v>2</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B141" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
-        <v>41397</v>
+        <v>41369</v>
       </c>
       <c r="D141" s="0">
         <v>2</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B142" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="1">
-        <v>41399</v>
+        <v>41373</v>
       </c>
       <c r="D142" s="0">
         <v>2</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B143" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>41400</v>
+        <v>41377</v>
       </c>
       <c r="D143" s="0">
         <v>2</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B144" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="1">
-        <v>41401</v>
+        <v>41381</v>
       </c>
       <c r="D144" s="0">
         <v>2</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B145" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C145" s="1">
-        <v>41402</v>
+        <v>41385</v>
       </c>
       <c r="D145" s="0">
         <v>2</v>
@@ -2395,13 +2395,13 @@
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B146" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="1">
-        <v>41403</v>
+        <v>41389</v>
       </c>
       <c r="D146" s="0">
         <v>2</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B147" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C147" s="1">
-        <v>41404</v>
+        <v>41393</v>
       </c>
       <c r="D147" s="0">
         <v>2</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B148" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" s="1">
-        <v>41405</v>
+        <v>41397</v>
       </c>
       <c r="D148" s="0">
         <v>2</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B149" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1">
-        <v>41407</v>
+        <v>41401</v>
       </c>
       <c r="D149" s="0">
         <v>2</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B150" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1">
-        <v>41407</v>
+        <v>41405</v>
       </c>
       <c r="D150" s="0">
         <v>2</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B151" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C151" s="1">
         <v>41409</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B152" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1">
-        <v>41409</v>
+        <v>41413</v>
       </c>
       <c r="D152" s="0">
         <v>2</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B153" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1">
-        <v>41411</v>
+        <v>41417</v>
       </c>
       <c r="D153" s="0">
         <v>2</v>
@@ -2507,13 +2507,13 @@
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B154" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="1">
-        <v>41411</v>
+        <v>41421</v>
       </c>
       <c r="D154" s="0">
         <v>2</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B155" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1">
-        <v>41413</v>
+        <v>41425</v>
       </c>
       <c r="D155" s="0">
         <v>2</v>
@@ -2535,13 +2535,13 @@
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B156" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156" s="1">
-        <v>41414</v>
+        <v>41429</v>
       </c>
       <c r="D156" s="0">
         <v>2</v>
@@ -2549,13 +2549,13 @@
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B157" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1">
-        <v>41415</v>
+        <v>41433</v>
       </c>
       <c r="D157" s="0">
         <v>2</v>
@@ -2563,13 +2563,13 @@
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B158" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1">
-        <v>41416</v>
+        <v>41437</v>
       </c>
       <c r="D158" s="0">
         <v>2</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B159" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1">
-        <v>41417</v>
+        <v>41441</v>
       </c>
       <c r="D159" s="0">
         <v>2</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B160" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160" s="1">
-        <v>41418</v>
+        <v>41445</v>
       </c>
       <c r="D160" s="0">
         <v>2</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B161" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
-        <v>41419</v>
+        <v>41449</v>
       </c>
       <c r="D161" s="0">
         <v>2</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B162" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162" s="1">
-        <v>41421</v>
+        <v>41453</v>
       </c>
       <c r="D162" s="0">
         <v>2</v>
@@ -2633,13 +2633,13 @@
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B163" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" s="1">
-        <v>41421</v>
+        <v>41457</v>
       </c>
       <c r="D163" s="0">
         <v>2</v>
@@ -2647,13 +2647,13 @@
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B164" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1">
-        <v>41423</v>
+        <v>41366</v>
       </c>
       <c r="D164" s="0">
         <v>2</v>
@@ -2661,13 +2661,13 @@
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B165" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="1">
-        <v>41423</v>
+        <v>41370</v>
       </c>
       <c r="D165" s="0">
         <v>2</v>
@@ -2675,13 +2675,13 @@
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B166" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C166" s="1">
-        <v>41425</v>
+        <v>41374</v>
       </c>
       <c r="D166" s="0">
         <v>2</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B167" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" s="1">
-        <v>41425</v>
+        <v>41378</v>
       </c>
       <c r="D167" s="0">
         <v>2</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B168" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="1">
-        <v>41427</v>
+        <v>41382</v>
       </c>
       <c r="D168" s="0">
         <v>2</v>
@@ -2717,13 +2717,13 @@
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B169" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1">
-        <v>41428</v>
+        <v>41386</v>
       </c>
       <c r="D169" s="0">
         <v>2</v>
@@ -2731,13 +2731,13 @@
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B170" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" s="1">
-        <v>41429</v>
+        <v>41390</v>
       </c>
       <c r="D170" s="0">
         <v>2</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B171" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1">
-        <v>41430</v>
+        <v>41394</v>
       </c>
       <c r="D171" s="0">
         <v>2</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B172" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="1">
-        <v>41431</v>
+        <v>41398</v>
       </c>
       <c r="D172" s="0">
         <v>2</v>
@@ -2773,13 +2773,13 @@
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B173" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173" s="1">
-        <v>41432</v>
+        <v>41402</v>
       </c>
       <c r="D173" s="0">
         <v>2</v>
@@ -2787,13 +2787,13 @@
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B174" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="1">
-        <v>41433</v>
+        <v>41406</v>
       </c>
       <c r="D174" s="0">
         <v>2</v>
@@ -2801,13 +2801,13 @@
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B175" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C175" s="1">
-        <v>41435</v>
+        <v>41410</v>
       </c>
       <c r="D175" s="0">
         <v>2</v>
@@ -2815,13 +2815,13 @@
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B176" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="1">
-        <v>41435</v>
+        <v>41414</v>
       </c>
       <c r="D176" s="0">
         <v>2</v>
@@ -2829,13 +2829,13 @@
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B177" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177" s="1">
-        <v>41437</v>
+        <v>41418</v>
       </c>
       <c r="D177" s="0">
         <v>2</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B178" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="1">
-        <v>41437</v>
+        <v>41422</v>
       </c>
       <c r="D178" s="0">
         <v>2</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B179" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C179" s="1">
-        <v>41439</v>
+        <v>41426</v>
       </c>
       <c r="D179" s="0">
         <v>2</v>
@@ -2871,13 +2871,13 @@
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B180" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" s="1">
-        <v>41439</v>
+        <v>41430</v>
       </c>
       <c r="D180" s="0">
         <v>2</v>
@@ -2885,13 +2885,13 @@
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B181" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="1">
-        <v>41441</v>
+        <v>41434</v>
       </c>
       <c r="D181" s="0">
         <v>2</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B182" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C182" s="1">
-        <v>41442</v>
+        <v>41438</v>
       </c>
       <c r="D182" s="0">
         <v>2</v>
@@ -2913,13 +2913,13 @@
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B183" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1">
-        <v>41443</v>
+        <v>41442</v>
       </c>
       <c r="D183" s="0">
         <v>2</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B184" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1">
-        <v>41444</v>
+        <v>41446</v>
       </c>
       <c r="D184" s="0">
         <v>2</v>
@@ -2941,13 +2941,13 @@
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B185" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" s="1">
-        <v>41445</v>
+        <v>41450</v>
       </c>
       <c r="D185" s="0">
         <v>2</v>
@@ -2955,13 +2955,13 @@
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B186" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C186" s="1">
-        <v>41446</v>
+        <v>41454</v>
       </c>
       <c r="D186" s="0">
         <v>2</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B187" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" s="1">
-        <v>41447</v>
+        <v>41458</v>
       </c>
       <c r="D187" s="0">
         <v>2</v>
@@ -2983,13 +2983,13 @@
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B188" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C188" s="1">
-        <v>41449</v>
+        <v>41365</v>
       </c>
       <c r="D188" s="0">
         <v>2</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B189" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="1">
-        <v>41449</v>
+        <v>41369</v>
       </c>
       <c r="D189" s="0">
         <v>2</v>
@@ -3011,13 +3011,13 @@
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B190" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C190" s="1">
-        <v>41451</v>
+        <v>41373</v>
       </c>
       <c r="D190" s="0">
         <v>2</v>
@@ -3025,13 +3025,13 @@
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B191" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" s="1">
-        <v>41451</v>
+        <v>41377</v>
       </c>
       <c r="D191" s="0">
         <v>2</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B192" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1">
-        <v>41453</v>
+        <v>41381</v>
       </c>
       <c r="D192" s="0">
         <v>2</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B193" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1">
-        <v>41453</v>
+        <v>41385</v>
       </c>
       <c r="D193" s="0">
         <v>2</v>
@@ -3067,13 +3067,13 @@
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B194" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1">
-        <v>41365</v>
+        <v>41389</v>
       </c>
       <c r="D194" s="0">
         <v>2</v>
@@ -3081,13 +3081,13 @@
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B195" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1">
-        <v>41367</v>
+        <v>41393</v>
       </c>
       <c r="D195" s="0">
         <v>2</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B196" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C196" s="1">
-        <v>41369</v>
+        <v>41397</v>
       </c>
       <c r="D196" s="0">
         <v>2</v>
@@ -3109,13 +3109,13 @@
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B197" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C197" s="1">
-        <v>41372</v>
+        <v>41401</v>
       </c>
       <c r="D197" s="0">
         <v>2</v>
@@ -3123,13 +3123,13 @@
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B198" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C198" s="1">
-        <v>41374</v>
+        <v>41405</v>
       </c>
       <c r="D198" s="0">
         <v>2</v>
@@ -3137,13 +3137,13 @@
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B199" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C199" s="1">
-        <v>41376</v>
+        <v>41409</v>
       </c>
       <c r="D199" s="0">
         <v>2</v>
@@ -3151,13 +3151,13 @@
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B200" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1">
-        <v>41379</v>
+        <v>41413</v>
       </c>
       <c r="D200" s="0">
         <v>2</v>
@@ -3165,13 +3165,13 @@
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B201" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C201" s="1">
-        <v>41381</v>
+        <v>41417</v>
       </c>
       <c r="D201" s="0">
         <v>2</v>
@@ -3179,13 +3179,13 @@
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B202" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C202" s="1">
-        <v>41383</v>
+        <v>41421</v>
       </c>
       <c r="D202" s="0">
         <v>2</v>
@@ -3193,13 +3193,13 @@
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B203" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C203" s="1">
-        <v>41386</v>
+        <v>41425</v>
       </c>
       <c r="D203" s="0">
         <v>2</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B204" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C204" s="1">
-        <v>41388</v>
+        <v>41429</v>
       </c>
       <c r="D204" s="0">
         <v>2</v>
@@ -3221,13 +3221,13 @@
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B205" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C205" s="1">
-        <v>41390</v>
+        <v>41433</v>
       </c>
       <c r="D205" s="0">
         <v>2</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B206" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C206" s="1">
-        <v>41393</v>
+        <v>41437</v>
       </c>
       <c r="D206" s="0">
         <v>2</v>
@@ -3249,13 +3249,13 @@
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B207" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C207" s="1">
-        <v>41395</v>
+        <v>41441</v>
       </c>
       <c r="D207" s="0">
         <v>2</v>
@@ -3263,13 +3263,13 @@
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B208" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C208" s="1">
-        <v>41397</v>
+        <v>41445</v>
       </c>
       <c r="D208" s="0">
         <v>2</v>
@@ -3277,13 +3277,13 @@
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B209" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C209" s="1">
-        <v>41400</v>
+        <v>41449</v>
       </c>
       <c r="D209" s="0">
         <v>2</v>
@@ -3291,13 +3291,13 @@
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B210" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C210" s="1">
-        <v>41402</v>
+        <v>41453</v>
       </c>
       <c r="D210" s="0">
         <v>2</v>
@@ -3305,13 +3305,13 @@
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B211" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1">
-        <v>41404</v>
+        <v>41457</v>
       </c>
       <c r="D211" s="0">
         <v>2</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row outlineLevel="0" r="212">
       <c r="A212" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B212" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1">
-        <v>41407</v>
+        <v>41366</v>
       </c>
       <c r="D212" s="0">
         <v>2</v>
@@ -3333,13 +3333,13 @@
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B213" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C213" s="1">
-        <v>41409</v>
+        <v>41370</v>
       </c>
       <c r="D213" s="0">
         <v>2</v>
@@ -3347,13 +3347,13 @@
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B214" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C214" s="1">
-        <v>41411</v>
+        <v>41374</v>
       </c>
       <c r="D214" s="0">
         <v>2</v>
@@ -3361,13 +3361,13 @@
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B215" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>41414</v>
+        <v>41378</v>
       </c>
       <c r="D215" s="0">
         <v>2</v>
@@ -3375,13 +3375,13 @@
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B216" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>41416</v>
+        <v>41382</v>
       </c>
       <c r="D216" s="0">
         <v>2</v>
@@ -3389,13 +3389,13 @@
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B217" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1">
-        <v>41418</v>
+        <v>41386</v>
       </c>
       <c r="D217" s="0">
         <v>2</v>
@@ -3403,13 +3403,13 @@
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B218" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1">
-        <v>41421</v>
+        <v>41390</v>
       </c>
       <c r="D218" s="0">
         <v>2</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B219" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C219" s="1">
-        <v>41423</v>
+        <v>41394</v>
       </c>
       <c r="D219" s="0">
         <v>2</v>
@@ -3431,13 +3431,13 @@
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B220" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C220" s="1">
-        <v>41425</v>
+        <v>41398</v>
       </c>
       <c r="D220" s="0">
         <v>2</v>
@@ -3445,13 +3445,13 @@
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B221" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
-        <v>41428</v>
+        <v>41402</v>
       </c>
       <c r="D221" s="0">
         <v>2</v>
@@ -3459,13 +3459,13 @@
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B222" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C222" s="1">
-        <v>41430</v>
+        <v>41406</v>
       </c>
       <c r="D222" s="0">
         <v>2</v>
@@ -3473,13 +3473,13 @@
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B223" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C223" s="1">
-        <v>41432</v>
+        <v>41410</v>
       </c>
       <c r="D223" s="0">
         <v>2</v>
@@ -3487,13 +3487,13 @@
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B224" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1">
-        <v>41435</v>
+        <v>41414</v>
       </c>
       <c r="D224" s="0">
         <v>2</v>
@@ -3501,13 +3501,13 @@
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B225" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C225" s="1">
-        <v>41437</v>
+        <v>41418</v>
       </c>
       <c r="D225" s="0">
         <v>2</v>
@@ -3515,13 +3515,13 @@
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B226" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C226" s="1">
-        <v>41439</v>
+        <v>41422</v>
       </c>
       <c r="D226" s="0">
         <v>2</v>
@@ -3529,13 +3529,13 @@
     </row>
     <row outlineLevel="0" r="227">
       <c r="A227" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B227" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C227" s="1">
-        <v>41442</v>
+        <v>41426</v>
       </c>
       <c r="D227" s="0">
         <v>2</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row outlineLevel="0" r="228">
       <c r="A228" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B228" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1">
-        <v>41444</v>
+        <v>41430</v>
       </c>
       <c r="D228" s="0">
         <v>2</v>
@@ -3557,13 +3557,13 @@
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B229" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1">
-        <v>41446</v>
+        <v>41434</v>
       </c>
       <c r="D229" s="0">
         <v>2</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row outlineLevel="0" r="230">
       <c r="A230" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B230" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1">
-        <v>41449</v>
+        <v>41438</v>
       </c>
       <c r="D230" s="0">
         <v>2</v>
@@ -3585,13 +3585,13 @@
     </row>
     <row outlineLevel="0" r="231">
       <c r="A231" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B231" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C231" s="1">
-        <v>41451</v>
+        <v>41442</v>
       </c>
       <c r="D231" s="0">
         <v>2</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row outlineLevel="0" r="232">
       <c r="A232" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B232" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1">
-        <v>41453</v>
+        <v>41446</v>
       </c>
       <c r="D232" s="0">
         <v>2</v>
@@ -3613,13 +3613,13 @@
     </row>
     <row outlineLevel="0" r="233">
       <c r="A233" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B233" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1">
-        <v>41365</v>
+        <v>41450</v>
       </c>
       <c r="D233" s="0">
         <v>2</v>
@@ -3627,13 +3627,13 @@
     </row>
     <row outlineLevel="0" r="234">
       <c r="A234" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B234" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C234" s="1">
-        <v>41367</v>
+        <v>41454</v>
       </c>
       <c r="D234" s="0">
         <v>2</v>
@@ -3641,2537 +3641,1097 @@
     </row>
     <row outlineLevel="0" r="235">
       <c r="A235" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B235" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1">
-        <v>41369</v>
+        <v>41458</v>
       </c>
       <c r="D235" s="0">
         <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="236">
-      <c r="A236" s="0">
-        <v>44</v>
-      </c>
-      <c r="B236" s="0">
-        <v>4</v>
-      </c>
-      <c r="C236" s="1">
-        <v>41372</v>
-      </c>
-      <c r="D236" s="0">
-        <v>2</v>
-      </c>
+      <c r="A236" s="0"/>
+      <c r="B236" s="0"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="0"/>
     </row>
     <row outlineLevel="0" r="237">
-      <c r="A237" s="0">
-        <v>44</v>
-      </c>
-      <c r="B237" s="0">
-        <v>4</v>
-      </c>
-      <c r="C237" s="1">
-        <v>41374</v>
-      </c>
-      <c r="D237" s="0">
-        <v>2</v>
-      </c>
+      <c r="A237" s="0"/>
+      <c r="B237" s="0"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="0"/>
     </row>
     <row outlineLevel="0" r="238">
-      <c r="A238" s="0">
-        <v>44</v>
-      </c>
-      <c r="B238" s="0">
-        <v>4</v>
-      </c>
-      <c r="C238" s="1">
-        <v>41376</v>
-      </c>
-      <c r="D238" s="0">
-        <v>2</v>
-      </c>
+      <c r="A238" s="0"/>
+      <c r="B238" s="0"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="0"/>
     </row>
     <row outlineLevel="0" r="239">
-      <c r="A239" s="0">
-        <v>44</v>
-      </c>
-      <c r="B239" s="0">
-        <v>4</v>
-      </c>
-      <c r="C239" s="1">
-        <v>41379</v>
-      </c>
-      <c r="D239" s="0">
-        <v>2</v>
-      </c>
+      <c r="A239" s="0"/>
+      <c r="B239" s="0"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="0"/>
     </row>
     <row outlineLevel="0" r="240">
-      <c r="A240" s="0">
-        <v>44</v>
-      </c>
-      <c r="B240" s="0">
-        <v>4</v>
-      </c>
-      <c r="C240" s="1">
-        <v>41381</v>
-      </c>
-      <c r="D240" s="0">
-        <v>2</v>
-      </c>
+      <c r="A240" s="0"/>
+      <c r="B240" s="0"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="0"/>
     </row>
     <row outlineLevel="0" r="241">
-      <c r="A241" s="0">
-        <v>44</v>
-      </c>
-      <c r="B241" s="0">
-        <v>4</v>
-      </c>
-      <c r="C241" s="1">
-        <v>41383</v>
-      </c>
-      <c r="D241" s="0">
-        <v>2</v>
-      </c>
+      <c r="A241" s="0"/>
+      <c r="B241" s="0"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="0"/>
     </row>
     <row outlineLevel="0" r="242">
-      <c r="A242" s="0">
-        <v>44</v>
-      </c>
-      <c r="B242" s="0">
-        <v>4</v>
-      </c>
-      <c r="C242" s="1">
-        <v>41386</v>
-      </c>
-      <c r="D242" s="0">
-        <v>2</v>
-      </c>
+      <c r="A242" s="0"/>
+      <c r="B242" s="0"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="0"/>
     </row>
     <row outlineLevel="0" r="243">
-      <c r="A243" s="0">
-        <v>44</v>
-      </c>
-      <c r="B243" s="0">
-        <v>4</v>
-      </c>
-      <c r="C243" s="1">
-        <v>41388</v>
-      </c>
-      <c r="D243" s="0">
-        <v>2</v>
-      </c>
+      <c r="A243" s="0"/>
+      <c r="B243" s="0"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="0"/>
     </row>
     <row outlineLevel="0" r="244">
-      <c r="A244" s="0">
-        <v>44</v>
-      </c>
-      <c r="B244" s="0">
-        <v>4</v>
-      </c>
-      <c r="C244" s="1">
-        <v>41390</v>
-      </c>
-      <c r="D244" s="0">
-        <v>2</v>
-      </c>
+      <c r="A244" s="0"/>
+      <c r="B244" s="0"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="0"/>
     </row>
     <row outlineLevel="0" r="245">
-      <c r="A245" s="0">
-        <v>44</v>
-      </c>
-      <c r="B245" s="0">
-        <v>4</v>
-      </c>
-      <c r="C245" s="1">
-        <v>41393</v>
-      </c>
-      <c r="D245" s="0">
-        <v>2</v>
-      </c>
+      <c r="A245" s="0"/>
+      <c r="B245" s="0"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="0"/>
     </row>
     <row outlineLevel="0" r="246">
-      <c r="A246" s="0">
-        <v>44</v>
-      </c>
-      <c r="B246" s="0">
-        <v>4</v>
-      </c>
-      <c r="C246" s="1">
-        <v>41395</v>
-      </c>
-      <c r="D246" s="0">
-        <v>2</v>
-      </c>
+      <c r="A246" s="0"/>
+      <c r="B246" s="0"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="0"/>
     </row>
     <row outlineLevel="0" r="247">
-      <c r="A247" s="0">
-        <v>44</v>
-      </c>
-      <c r="B247" s="0">
-        <v>4</v>
-      </c>
-      <c r="C247" s="1">
-        <v>41397</v>
-      </c>
-      <c r="D247" s="0">
-        <v>2</v>
-      </c>
+      <c r="A247" s="0"/>
+      <c r="B247" s="0"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="0"/>
     </row>
     <row outlineLevel="0" r="248">
-      <c r="A248" s="0">
-        <v>44</v>
-      </c>
-      <c r="B248" s="0">
-        <v>4</v>
-      </c>
-      <c r="C248" s="1">
-        <v>41400</v>
-      </c>
-      <c r="D248" s="0">
-        <v>2</v>
-      </c>
+      <c r="A248" s="0"/>
+      <c r="B248" s="0"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="0"/>
     </row>
     <row outlineLevel="0" r="249">
-      <c r="A249" s="0">
-        <v>44</v>
-      </c>
-      <c r="B249" s="0">
-        <v>4</v>
-      </c>
-      <c r="C249" s="1">
-        <v>41402</v>
-      </c>
-      <c r="D249" s="0">
-        <v>2</v>
-      </c>
+      <c r="A249" s="0"/>
+      <c r="B249" s="0"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="0"/>
     </row>
     <row outlineLevel="0" r="250">
-      <c r="A250" s="0">
-        <v>44</v>
-      </c>
-      <c r="B250" s="0">
-        <v>4</v>
-      </c>
-      <c r="C250" s="1">
-        <v>41404</v>
-      </c>
-      <c r="D250" s="0">
-        <v>2</v>
-      </c>
+      <c r="A250" s="0"/>
+      <c r="B250" s="0"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="0"/>
     </row>
     <row outlineLevel="0" r="251">
-      <c r="A251" s="0">
-        <v>44</v>
-      </c>
-      <c r="B251" s="0">
-        <v>4</v>
-      </c>
-      <c r="C251" s="1">
-        <v>41407</v>
-      </c>
-      <c r="D251" s="0">
-        <v>2</v>
-      </c>
+      <c r="A251" s="0"/>
+      <c r="B251" s="0"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="0"/>
     </row>
     <row outlineLevel="0" r="252">
-      <c r="A252" s="0">
-        <v>44</v>
-      </c>
-      <c r="B252" s="0">
-        <v>4</v>
-      </c>
-      <c r="C252" s="1">
-        <v>41409</v>
-      </c>
-      <c r="D252" s="0">
-        <v>2</v>
-      </c>
+      <c r="A252" s="0"/>
+      <c r="B252" s="0"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="0"/>
     </row>
     <row outlineLevel="0" r="253">
-      <c r="A253" s="0">
-        <v>44</v>
-      </c>
-      <c r="B253" s="0">
-        <v>4</v>
-      </c>
-      <c r="C253" s="1">
-        <v>41411</v>
-      </c>
-      <c r="D253" s="0">
-        <v>2</v>
-      </c>
+      <c r="A253" s="0"/>
+      <c r="B253" s="0"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="0"/>
     </row>
     <row outlineLevel="0" r="254">
-      <c r="A254" s="0">
-        <v>44</v>
-      </c>
-      <c r="B254" s="0">
-        <v>4</v>
-      </c>
-      <c r="C254" s="1">
-        <v>41414</v>
-      </c>
-      <c r="D254" s="0">
-        <v>2</v>
-      </c>
+      <c r="A254" s="0"/>
+      <c r="B254" s="0"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="0"/>
     </row>
     <row outlineLevel="0" r="255">
-      <c r="A255" s="0">
-        <v>44</v>
-      </c>
-      <c r="B255" s="0">
-        <v>4</v>
-      </c>
-      <c r="C255" s="1">
-        <v>41416</v>
-      </c>
-      <c r="D255" s="0">
-        <v>2</v>
-      </c>
+      <c r="A255" s="0"/>
+      <c r="B255" s="0"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="0"/>
     </row>
     <row outlineLevel="0" r="256">
-      <c r="A256" s="0">
-        <v>44</v>
-      </c>
-      <c r="B256" s="0">
-        <v>4</v>
-      </c>
-      <c r="C256" s="1">
-        <v>41418</v>
-      </c>
-      <c r="D256" s="0">
-        <v>2</v>
-      </c>
+      <c r="A256" s="0"/>
+      <c r="B256" s="0"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="0"/>
     </row>
     <row outlineLevel="0" r="257">
-      <c r="A257" s="0">
-        <v>44</v>
-      </c>
-      <c r="B257" s="0">
-        <v>4</v>
-      </c>
-      <c r="C257" s="1">
-        <v>41421</v>
-      </c>
-      <c r="D257" s="0">
-        <v>2</v>
-      </c>
+      <c r="A257" s="0"/>
+      <c r="B257" s="0"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="0"/>
     </row>
     <row outlineLevel="0" r="258">
-      <c r="A258" s="0">
-        <v>44</v>
-      </c>
-      <c r="B258" s="0">
-        <v>4</v>
-      </c>
-      <c r="C258" s="1">
-        <v>41423</v>
-      </c>
-      <c r="D258" s="0">
-        <v>2</v>
-      </c>
+      <c r="A258" s="0"/>
+      <c r="B258" s="0"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="0"/>
     </row>
     <row outlineLevel="0" r="259">
-      <c r="A259" s="0">
-        <v>44</v>
-      </c>
-      <c r="B259" s="0">
-        <v>4</v>
-      </c>
-      <c r="C259" s="1">
-        <v>41425</v>
-      </c>
-      <c r="D259" s="0">
-        <v>2</v>
-      </c>
+      <c r="A259" s="0"/>
+      <c r="B259" s="0"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="0"/>
     </row>
     <row outlineLevel="0" r="260">
-      <c r="A260" s="0">
-        <v>44</v>
-      </c>
-      <c r="B260" s="0">
-        <v>4</v>
-      </c>
-      <c r="C260" s="1">
-        <v>41428</v>
-      </c>
-      <c r="D260" s="0">
-        <v>2</v>
-      </c>
+      <c r="A260" s="0"/>
+      <c r="B260" s="0"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="0"/>
     </row>
     <row outlineLevel="0" r="261">
-      <c r="A261" s="0">
-        <v>44</v>
-      </c>
-      <c r="B261" s="0">
-        <v>4</v>
-      </c>
-      <c r="C261" s="1">
-        <v>41430</v>
-      </c>
-      <c r="D261" s="0">
-        <v>2</v>
-      </c>
+      <c r="A261" s="0"/>
+      <c r="B261" s="0"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="0"/>
     </row>
     <row outlineLevel="0" r="262">
-      <c r="A262" s="0">
-        <v>44</v>
-      </c>
-      <c r="B262" s="0">
-        <v>4</v>
-      </c>
-      <c r="C262" s="1">
-        <v>41432</v>
-      </c>
-      <c r="D262" s="0">
-        <v>2</v>
-      </c>
+      <c r="A262" s="0"/>
+      <c r="B262" s="0"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="0"/>
     </row>
     <row outlineLevel="0" r="263">
-      <c r="A263" s="0">
-        <v>44</v>
-      </c>
-      <c r="B263" s="0">
-        <v>4</v>
-      </c>
-      <c r="C263" s="1">
-        <v>41435</v>
-      </c>
-      <c r="D263" s="0">
-        <v>2</v>
-      </c>
+      <c r="A263" s="0"/>
+      <c r="B263" s="0"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="0"/>
     </row>
     <row outlineLevel="0" r="264">
-      <c r="A264" s="0">
-        <v>44</v>
-      </c>
-      <c r="B264" s="0">
-        <v>4</v>
-      </c>
-      <c r="C264" s="1">
-        <v>41437</v>
-      </c>
-      <c r="D264" s="0">
-        <v>2</v>
-      </c>
+      <c r="A264" s="0"/>
+      <c r="B264" s="0"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="0"/>
     </row>
     <row outlineLevel="0" r="265">
-      <c r="A265" s="0">
-        <v>44</v>
-      </c>
-      <c r="B265" s="0">
-        <v>4</v>
-      </c>
-      <c r="C265" s="1">
-        <v>41439</v>
-      </c>
-      <c r="D265" s="0">
-        <v>2</v>
-      </c>
+      <c r="A265" s="0"/>
+      <c r="B265" s="0"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="0"/>
     </row>
     <row outlineLevel="0" r="266">
-      <c r="A266" s="0">
-        <v>44</v>
-      </c>
-      <c r="B266" s="0">
-        <v>4</v>
-      </c>
-      <c r="C266" s="1">
-        <v>41442</v>
-      </c>
-      <c r="D266" s="0">
-        <v>2</v>
-      </c>
+      <c r="A266" s="0"/>
+      <c r="B266" s="0"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="0"/>
     </row>
     <row outlineLevel="0" r="267">
-      <c r="A267" s="0">
-        <v>44</v>
-      </c>
-      <c r="B267" s="0">
-        <v>4</v>
-      </c>
-      <c r="C267" s="1">
-        <v>41444</v>
-      </c>
-      <c r="D267" s="0">
-        <v>2</v>
-      </c>
+      <c r="A267" s="0"/>
+      <c r="B267" s="0"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="0"/>
     </row>
     <row outlineLevel="0" r="268">
-      <c r="A268" s="0">
-        <v>44</v>
-      </c>
-      <c r="B268" s="0">
-        <v>4</v>
-      </c>
-      <c r="C268" s="1">
-        <v>41446</v>
-      </c>
-      <c r="D268" s="0">
-        <v>2</v>
-      </c>
+      <c r="A268" s="0"/>
+      <c r="B268" s="0"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="0"/>
     </row>
     <row outlineLevel="0" r="269">
-      <c r="A269" s="0">
-        <v>44</v>
-      </c>
-      <c r="B269" s="0">
-        <v>4</v>
-      </c>
-      <c r="C269" s="1">
-        <v>41449</v>
-      </c>
-      <c r="D269" s="0">
-        <v>2</v>
-      </c>
+      <c r="A269" s="0"/>
+      <c r="B269" s="0"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="0"/>
     </row>
     <row outlineLevel="0" r="270">
-      <c r="A270" s="0">
-        <v>44</v>
-      </c>
-      <c r="B270" s="0">
-        <v>4</v>
-      </c>
-      <c r="C270" s="1">
-        <v>41451</v>
-      </c>
-      <c r="D270" s="0">
-        <v>2</v>
-      </c>
+      <c r="A270" s="0"/>
+      <c r="B270" s="0"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="0"/>
     </row>
     <row outlineLevel="0" r="271">
-      <c r="A271" s="0">
-        <v>44</v>
-      </c>
-      <c r="B271" s="0">
-        <v>4</v>
-      </c>
-      <c r="C271" s="1">
-        <v>41453</v>
-      </c>
-      <c r="D271" s="0">
-        <v>2</v>
-      </c>
+      <c r="A271" s="0"/>
+      <c r="B271" s="0"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="0"/>
     </row>
     <row outlineLevel="0" r="272">
-      <c r="A272" s="0">
-        <v>46</v>
-      </c>
-      <c r="B272" s="0">
-        <v>1</v>
-      </c>
-      <c r="C272" s="1">
-        <v>41365</v>
-      </c>
-      <c r="D272" s="0">
-        <v>2</v>
-      </c>
+      <c r="A272" s="0"/>
+      <c r="B272" s="0"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="0"/>
     </row>
     <row outlineLevel="0" r="273">
-      <c r="A273" s="0">
-        <v>46</v>
-      </c>
-      <c r="B273" s="0">
-        <v>1</v>
-      </c>
-      <c r="C273" s="1">
-        <v>41369</v>
-      </c>
-      <c r="D273" s="0">
-        <v>2</v>
-      </c>
+      <c r="A273" s="0"/>
+      <c r="B273" s="0"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="0"/>
     </row>
     <row outlineLevel="0" r="274">
-      <c r="A274" s="0">
-        <v>46</v>
-      </c>
-      <c r="B274" s="0">
-        <v>1</v>
-      </c>
-      <c r="C274" s="1">
-        <v>41373</v>
-      </c>
-      <c r="D274" s="0">
-        <v>2</v>
-      </c>
+      <c r="A274" s="0"/>
+      <c r="B274" s="0"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="0"/>
     </row>
     <row outlineLevel="0" r="275">
-      <c r="A275" s="0">
-        <v>46</v>
-      </c>
-      <c r="B275" s="0">
-        <v>1</v>
-      </c>
-      <c r="C275" s="1">
-        <v>41377</v>
-      </c>
-      <c r="D275" s="0">
-        <v>2</v>
-      </c>
+      <c r="A275" s="0"/>
+      <c r="B275" s="0"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="0"/>
     </row>
     <row outlineLevel="0" r="276">
-      <c r="A276" s="0">
-        <v>46</v>
-      </c>
-      <c r="B276" s="0">
-        <v>1</v>
-      </c>
-      <c r="C276" s="1">
-        <v>41381</v>
-      </c>
-      <c r="D276" s="0">
-        <v>2</v>
-      </c>
+      <c r="A276" s="0"/>
+      <c r="B276" s="0"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="0"/>
     </row>
     <row outlineLevel="0" r="277">
-      <c r="A277" s="0">
-        <v>46</v>
-      </c>
-      <c r="B277" s="0">
-        <v>1</v>
-      </c>
-      <c r="C277" s="1">
-        <v>41385</v>
-      </c>
-      <c r="D277" s="0">
-        <v>2</v>
-      </c>
+      <c r="A277" s="0"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="0"/>
     </row>
     <row outlineLevel="0" r="278">
-      <c r="A278" s="0">
-        <v>46</v>
-      </c>
-      <c r="B278" s="0">
-        <v>1</v>
-      </c>
-      <c r="C278" s="1">
-        <v>41389</v>
-      </c>
-      <c r="D278" s="0">
-        <v>2</v>
-      </c>
+      <c r="A278" s="0"/>
+      <c r="B278" s="0"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="0"/>
     </row>
     <row outlineLevel="0" r="279">
-      <c r="A279" s="0">
-        <v>46</v>
-      </c>
-      <c r="B279" s="0">
-        <v>1</v>
-      </c>
-      <c r="C279" s="1">
-        <v>41393</v>
-      </c>
-      <c r="D279" s="0">
-        <v>2</v>
-      </c>
+      <c r="A279" s="0"/>
+      <c r="B279" s="0"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="0"/>
     </row>
     <row outlineLevel="0" r="280">
-      <c r="A280" s="0">
-        <v>46</v>
-      </c>
-      <c r="B280" s="0">
-        <v>1</v>
-      </c>
-      <c r="C280" s="1">
-        <v>41397</v>
-      </c>
-      <c r="D280" s="0">
-        <v>2</v>
-      </c>
+      <c r="A280" s="0"/>
+      <c r="B280" s="0"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="0"/>
     </row>
     <row outlineLevel="0" r="281">
-      <c r="A281" s="0">
-        <v>46</v>
-      </c>
-      <c r="B281" s="0">
-        <v>1</v>
-      </c>
-      <c r="C281" s="1">
-        <v>41401</v>
-      </c>
-      <c r="D281" s="0">
-        <v>2</v>
-      </c>
+      <c r="A281" s="0"/>
+      <c r="B281" s="0"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="0"/>
     </row>
     <row outlineLevel="0" r="282">
-      <c r="A282" s="0">
-        <v>46</v>
-      </c>
-      <c r="B282" s="0">
-        <v>1</v>
-      </c>
-      <c r="C282" s="1">
-        <v>41405</v>
-      </c>
-      <c r="D282" s="0">
-        <v>2</v>
-      </c>
+      <c r="A282" s="0"/>
+      <c r="B282" s="0"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="0"/>
     </row>
     <row outlineLevel="0" r="283">
-      <c r="A283" s="0">
-        <v>46</v>
-      </c>
-      <c r="B283" s="0">
-        <v>1</v>
-      </c>
-      <c r="C283" s="1">
-        <v>41409</v>
-      </c>
-      <c r="D283" s="0">
-        <v>2</v>
-      </c>
+      <c r="A283" s="0"/>
+      <c r="B283" s="0"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="0"/>
     </row>
     <row outlineLevel="0" r="284">
-      <c r="A284" s="0">
-        <v>46</v>
-      </c>
-      <c r="B284" s="0">
-        <v>1</v>
-      </c>
-      <c r="C284" s="1">
-        <v>41413</v>
-      </c>
-      <c r="D284" s="0">
-        <v>2</v>
-      </c>
+      <c r="A284" s="0"/>
+      <c r="B284" s="0"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="0"/>
     </row>
     <row outlineLevel="0" r="285">
-      <c r="A285" s="0">
-        <v>46</v>
-      </c>
-      <c r="B285" s="0">
-        <v>1</v>
-      </c>
-      <c r="C285" s="1">
-        <v>41417</v>
-      </c>
-      <c r="D285" s="0">
-        <v>2</v>
-      </c>
+      <c r="A285" s="0"/>
+      <c r="B285" s="0"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="0"/>
     </row>
     <row outlineLevel="0" r="286">
-      <c r="A286" s="0">
-        <v>46</v>
-      </c>
-      <c r="B286" s="0">
-        <v>1</v>
-      </c>
-      <c r="C286" s="1">
-        <v>41421</v>
-      </c>
-      <c r="D286" s="0">
-        <v>2</v>
-      </c>
+      <c r="A286" s="0"/>
+      <c r="B286" s="0"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="0"/>
     </row>
     <row outlineLevel="0" r="287">
-      <c r="A287" s="0">
-        <v>46</v>
-      </c>
-      <c r="B287" s="0">
-        <v>1</v>
-      </c>
-      <c r="C287" s="1">
-        <v>41425</v>
-      </c>
-      <c r="D287" s="0">
-        <v>2</v>
-      </c>
+      <c r="A287" s="0"/>
+      <c r="B287" s="0"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="0"/>
     </row>
     <row outlineLevel="0" r="288">
-      <c r="A288" s="0">
-        <v>46</v>
-      </c>
-      <c r="B288" s="0">
-        <v>1</v>
-      </c>
-      <c r="C288" s="1">
-        <v>41429</v>
-      </c>
-      <c r="D288" s="0">
-        <v>2</v>
-      </c>
+      <c r="A288" s="0"/>
+      <c r="B288" s="0"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="0"/>
     </row>
     <row outlineLevel="0" r="289">
-      <c r="A289" s="0">
-        <v>46</v>
-      </c>
-      <c r="B289" s="0">
-        <v>1</v>
-      </c>
-      <c r="C289" s="1">
-        <v>41433</v>
-      </c>
-      <c r="D289" s="0">
-        <v>2</v>
-      </c>
+      <c r="A289" s="0"/>
+      <c r="B289" s="0"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="0"/>
     </row>
     <row outlineLevel="0" r="290">
-      <c r="A290" s="0">
-        <v>46</v>
-      </c>
-      <c r="B290" s="0">
-        <v>1</v>
-      </c>
-      <c r="C290" s="1">
-        <v>41437</v>
-      </c>
-      <c r="D290" s="0">
-        <v>2</v>
-      </c>
+      <c r="A290" s="0"/>
+      <c r="B290" s="0"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="0"/>
     </row>
     <row outlineLevel="0" r="291">
-      <c r="A291" s="0">
-        <v>46</v>
-      </c>
-      <c r="B291" s="0">
-        <v>1</v>
-      </c>
-      <c r="C291" s="1">
-        <v>41441</v>
-      </c>
-      <c r="D291" s="0">
-        <v>2</v>
-      </c>
+      <c r="A291" s="0"/>
+      <c r="B291" s="0"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="0"/>
     </row>
     <row outlineLevel="0" r="292">
-      <c r="A292" s="0">
-        <v>46</v>
-      </c>
-      <c r="B292" s="0">
-        <v>1</v>
-      </c>
-      <c r="C292" s="1">
-        <v>41445</v>
-      </c>
-      <c r="D292" s="0">
-        <v>2</v>
-      </c>
+      <c r="A292" s="0"/>
+      <c r="B292" s="0"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="0"/>
     </row>
     <row outlineLevel="0" r="293">
-      <c r="A293" s="0">
-        <v>46</v>
-      </c>
-      <c r="B293" s="0">
-        <v>1</v>
-      </c>
-      <c r="C293" s="1">
-        <v>41449</v>
-      </c>
-      <c r="D293" s="0">
-        <v>2</v>
-      </c>
+      <c r="A293" s="0"/>
+      <c r="B293" s="0"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="0"/>
     </row>
     <row outlineLevel="0" r="294">
-      <c r="A294" s="0">
-        <v>46</v>
-      </c>
-      <c r="B294" s="0">
-        <v>1</v>
-      </c>
-      <c r="C294" s="1">
-        <v>41453</v>
-      </c>
-      <c r="D294" s="0">
-        <v>2</v>
-      </c>
+      <c r="A294" s="0"/>
+      <c r="B294" s="0"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="0"/>
     </row>
     <row outlineLevel="0" r="295">
-      <c r="A295" s="0">
-        <v>46</v>
-      </c>
-      <c r="B295" s="0">
-        <v>1</v>
-      </c>
-      <c r="C295" s="1">
-        <v>41457</v>
-      </c>
-      <c r="D295" s="0">
-        <v>2</v>
-      </c>
+      <c r="A295" s="0"/>
+      <c r="B295" s="0"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="0"/>
     </row>
     <row outlineLevel="0" r="296">
-      <c r="A296" s="0">
-        <v>46</v>
-      </c>
-      <c r="B296" s="0">
-        <v>1</v>
-      </c>
-      <c r="C296" s="1">
-        <v>41366</v>
-      </c>
-      <c r="D296" s="0">
-        <v>2</v>
-      </c>
+      <c r="A296" s="0"/>
+      <c r="B296" s="0"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="0"/>
     </row>
     <row outlineLevel="0" r="297">
-      <c r="A297" s="0">
-        <v>46</v>
-      </c>
-      <c r="B297" s="0">
-        <v>1</v>
-      </c>
-      <c r="C297" s="1">
-        <v>41370</v>
-      </c>
-      <c r="D297" s="0">
-        <v>2</v>
-      </c>
+      <c r="A297" s="0"/>
+      <c r="B297" s="0"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="0"/>
     </row>
     <row outlineLevel="0" r="298">
-      <c r="A298" s="0">
-        <v>46</v>
-      </c>
-      <c r="B298" s="0">
-        <v>1</v>
-      </c>
-      <c r="C298" s="1">
-        <v>41374</v>
-      </c>
-      <c r="D298" s="0">
-        <v>2</v>
-      </c>
+      <c r="A298" s="0"/>
+      <c r="B298" s="0"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="0"/>
     </row>
     <row outlineLevel="0" r="299">
-      <c r="A299" s="0">
-        <v>46</v>
-      </c>
-      <c r="B299" s="0">
-        <v>1</v>
-      </c>
-      <c r="C299" s="1">
-        <v>41378</v>
-      </c>
-      <c r="D299" s="0">
-        <v>2</v>
-      </c>
+      <c r="A299" s="0"/>
+      <c r="B299" s="0"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="0"/>
     </row>
     <row outlineLevel="0" r="300">
-      <c r="A300" s="0">
-        <v>46</v>
-      </c>
-      <c r="B300" s="0">
-        <v>1</v>
-      </c>
-      <c r="C300" s="1">
-        <v>41382</v>
-      </c>
-      <c r="D300" s="0">
-        <v>2</v>
-      </c>
+      <c r="A300" s="0"/>
+      <c r="B300" s="0"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="0"/>
     </row>
     <row outlineLevel="0" r="301">
-      <c r="A301" s="0">
-        <v>46</v>
-      </c>
-      <c r="B301" s="0">
-        <v>1</v>
-      </c>
-      <c r="C301" s="1">
-        <v>41386</v>
-      </c>
-      <c r="D301" s="0">
-        <v>2</v>
-      </c>
+      <c r="A301" s="0"/>
+      <c r="B301" s="0"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="0"/>
     </row>
     <row outlineLevel="0" r="302">
-      <c r="A302" s="0">
-        <v>46</v>
-      </c>
-      <c r="B302" s="0">
-        <v>1</v>
-      </c>
-      <c r="C302" s="1">
-        <v>41390</v>
-      </c>
-      <c r="D302" s="0">
-        <v>2</v>
-      </c>
+      <c r="A302" s="0"/>
+      <c r="B302" s="0"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="0"/>
     </row>
     <row outlineLevel="0" r="303">
-      <c r="A303" s="0">
-        <v>46</v>
-      </c>
-      <c r="B303" s="0">
-        <v>1</v>
-      </c>
-      <c r="C303" s="1">
-        <v>41394</v>
-      </c>
-      <c r="D303" s="0">
-        <v>2</v>
-      </c>
+      <c r="A303" s="0"/>
+      <c r="B303" s="0"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="0"/>
     </row>
     <row outlineLevel="0" r="304">
-      <c r="A304" s="0">
-        <v>46</v>
-      </c>
-      <c r="B304" s="0">
-        <v>1</v>
-      </c>
-      <c r="C304" s="1">
-        <v>41398</v>
-      </c>
-      <c r="D304" s="0">
-        <v>2</v>
-      </c>
+      <c r="A304" s="0"/>
+      <c r="B304" s="0"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="0"/>
     </row>
     <row outlineLevel="0" r="305">
-      <c r="A305" s="0">
-        <v>46</v>
-      </c>
-      <c r="B305" s="0">
-        <v>1</v>
-      </c>
-      <c r="C305" s="1">
-        <v>41402</v>
-      </c>
-      <c r="D305" s="0">
-        <v>2</v>
-      </c>
+      <c r="A305" s="0"/>
+      <c r="B305" s="0"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="0"/>
     </row>
     <row outlineLevel="0" r="306">
-      <c r="A306" s="0">
-        <v>46</v>
-      </c>
-      <c r="B306" s="0">
-        <v>1</v>
-      </c>
-      <c r="C306" s="1">
-        <v>41406</v>
-      </c>
-      <c r="D306" s="0">
-        <v>2</v>
-      </c>
+      <c r="A306" s="0"/>
+      <c r="B306" s="0"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="0"/>
     </row>
     <row outlineLevel="0" r="307">
-      <c r="A307" s="0">
-        <v>46</v>
-      </c>
-      <c r="B307" s="0">
-        <v>1</v>
-      </c>
-      <c r="C307" s="1">
-        <v>41410</v>
-      </c>
-      <c r="D307" s="0">
-        <v>2</v>
-      </c>
+      <c r="A307" s="0"/>
+      <c r="B307" s="0"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="0"/>
     </row>
     <row outlineLevel="0" r="308">
-      <c r="A308" s="0">
-        <v>46</v>
-      </c>
-      <c r="B308" s="0">
-        <v>1</v>
-      </c>
-      <c r="C308" s="1">
-        <v>41414</v>
-      </c>
-      <c r="D308" s="0">
-        <v>2</v>
-      </c>
+      <c r="A308" s="0"/>
+      <c r="B308" s="0"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="0"/>
     </row>
     <row outlineLevel="0" r="309">
-      <c r="A309" s="0">
-        <v>46</v>
-      </c>
-      <c r="B309" s="0">
-        <v>1</v>
-      </c>
-      <c r="C309" s="1">
-        <v>41418</v>
-      </c>
-      <c r="D309" s="0">
-        <v>2</v>
-      </c>
+      <c r="A309" s="0"/>
+      <c r="B309" s="0"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="0"/>
     </row>
     <row outlineLevel="0" r="310">
-      <c r="A310" s="0">
-        <v>46</v>
-      </c>
-      <c r="B310" s="0">
-        <v>1</v>
-      </c>
-      <c r="C310" s="1">
-        <v>41422</v>
-      </c>
-      <c r="D310" s="0">
-        <v>2</v>
-      </c>
+      <c r="A310" s="0"/>
+      <c r="B310" s="0"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="0"/>
     </row>
     <row outlineLevel="0" r="311">
-      <c r="A311" s="0">
-        <v>46</v>
-      </c>
-      <c r="B311" s="0">
-        <v>1</v>
-      </c>
-      <c r="C311" s="1">
-        <v>41426</v>
-      </c>
-      <c r="D311" s="0">
-        <v>2</v>
-      </c>
+      <c r="A311" s="0"/>
+      <c r="B311" s="0"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="0"/>
     </row>
     <row outlineLevel="0" r="312">
-      <c r="A312" s="0">
-        <v>46</v>
-      </c>
-      <c r="B312" s="0">
-        <v>1</v>
-      </c>
-      <c r="C312" s="1">
-        <v>41430</v>
-      </c>
-      <c r="D312" s="0">
-        <v>2</v>
-      </c>
+      <c r="A312" s="0"/>
+      <c r="B312" s="0"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="0"/>
     </row>
     <row outlineLevel="0" r="313">
-      <c r="A313" s="0">
-        <v>46</v>
-      </c>
-      <c r="B313" s="0">
-        <v>1</v>
-      </c>
-      <c r="C313" s="1">
-        <v>41434</v>
-      </c>
-      <c r="D313" s="0">
-        <v>2</v>
-      </c>
+      <c r="A313" s="0"/>
+      <c r="B313" s="0"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="0"/>
     </row>
     <row outlineLevel="0" r="314">
-      <c r="A314" s="0">
-        <v>46</v>
-      </c>
-      <c r="B314" s="0">
-        <v>1</v>
-      </c>
-      <c r="C314" s="1">
-        <v>41438</v>
-      </c>
-      <c r="D314" s="0">
-        <v>2</v>
-      </c>
+      <c r="A314" s="0"/>
+      <c r="B314" s="0"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="0"/>
     </row>
     <row outlineLevel="0" r="315">
-      <c r="A315" s="0">
-        <v>46</v>
-      </c>
-      <c r="B315" s="0">
-        <v>1</v>
-      </c>
-      <c r="C315" s="1">
-        <v>41442</v>
-      </c>
-      <c r="D315" s="0">
-        <v>2</v>
-      </c>
+      <c r="A315" s="0"/>
+      <c r="B315" s="0"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="0"/>
     </row>
     <row outlineLevel="0" r="316">
-      <c r="A316" s="0">
-        <v>46</v>
-      </c>
-      <c r="B316" s="0">
-        <v>1</v>
-      </c>
-      <c r="C316" s="1">
-        <v>41446</v>
-      </c>
-      <c r="D316" s="0">
-        <v>2</v>
-      </c>
+      <c r="A316" s="0"/>
+      <c r="B316" s="0"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="0"/>
     </row>
     <row outlineLevel="0" r="317">
-      <c r="A317" s="0">
-        <v>46</v>
-      </c>
-      <c r="B317" s="0">
-        <v>1</v>
-      </c>
-      <c r="C317" s="1">
-        <v>41450</v>
-      </c>
-      <c r="D317" s="0">
-        <v>2</v>
-      </c>
+      <c r="A317" s="0"/>
+      <c r="B317" s="0"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="0"/>
     </row>
     <row outlineLevel="0" r="318">
-      <c r="A318" s="0">
-        <v>46</v>
-      </c>
-      <c r="B318" s="0">
-        <v>1</v>
-      </c>
-      <c r="C318" s="1">
-        <v>41454</v>
-      </c>
-      <c r="D318" s="0">
-        <v>2</v>
-      </c>
+      <c r="A318" s="0"/>
+      <c r="B318" s="0"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="0"/>
     </row>
     <row outlineLevel="0" r="319">
-      <c r="A319" s="0">
-        <v>46</v>
-      </c>
-      <c r="B319" s="0">
-        <v>1</v>
-      </c>
-      <c r="C319" s="1">
-        <v>41458</v>
-      </c>
-      <c r="D319" s="0">
-        <v>2</v>
-      </c>
+      <c r="A319" s="0"/>
+      <c r="B319" s="0"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="0"/>
     </row>
     <row outlineLevel="0" r="320">
-      <c r="A320" s="0">
-        <v>48</v>
-      </c>
-      <c r="B320" s="0">
-        <v>1</v>
-      </c>
-      <c r="C320" s="1">
-        <v>41365</v>
-      </c>
-      <c r="D320" s="0">
-        <v>2</v>
-      </c>
+      <c r="A320" s="0"/>
+      <c r="B320" s="0"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="0"/>
     </row>
     <row outlineLevel="0" r="321">
-      <c r="A321" s="0">
-        <v>48</v>
-      </c>
-      <c r="B321" s="0">
-        <v>1</v>
-      </c>
-      <c r="C321" s="1">
-        <v>41369</v>
-      </c>
-      <c r="D321" s="0">
-        <v>2</v>
-      </c>
+      <c r="A321" s="0"/>
+      <c r="B321" s="0"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="0"/>
     </row>
     <row outlineLevel="0" r="322">
-      <c r="A322" s="0">
-        <v>48</v>
-      </c>
-      <c r="B322" s="0">
-        <v>1</v>
-      </c>
-      <c r="C322" s="1">
-        <v>41373</v>
-      </c>
-      <c r="D322" s="0">
-        <v>2</v>
-      </c>
+      <c r="A322" s="0"/>
+      <c r="B322" s="0"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="0"/>
     </row>
     <row outlineLevel="0" r="323">
-      <c r="A323" s="0">
-        <v>48</v>
-      </c>
-      <c r="B323" s="0">
-        <v>1</v>
-      </c>
-      <c r="C323" s="1">
-        <v>41377</v>
-      </c>
-      <c r="D323" s="0">
-        <v>2</v>
-      </c>
+      <c r="A323" s="0"/>
+      <c r="B323" s="0"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="0"/>
     </row>
     <row outlineLevel="0" r="324">
-      <c r="A324" s="0">
-        <v>48</v>
-      </c>
-      <c r="B324" s="0">
-        <v>1</v>
-      </c>
-      <c r="C324" s="1">
-        <v>41381</v>
-      </c>
-      <c r="D324" s="0">
-        <v>2</v>
-      </c>
+      <c r="A324" s="0"/>
+      <c r="B324" s="0"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="0"/>
     </row>
     <row outlineLevel="0" r="325">
-      <c r="A325" s="0">
-        <v>48</v>
-      </c>
-      <c r="B325" s="0">
-        <v>1</v>
-      </c>
-      <c r="C325" s="1">
-        <v>41385</v>
-      </c>
-      <c r="D325" s="0">
-        <v>2</v>
-      </c>
+      <c r="A325" s="0"/>
+      <c r="B325" s="0"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="0"/>
     </row>
     <row outlineLevel="0" r="326">
-      <c r="A326" s="0">
-        <v>48</v>
-      </c>
-      <c r="B326" s="0">
-        <v>1</v>
-      </c>
-      <c r="C326" s="1">
-        <v>41389</v>
-      </c>
-      <c r="D326" s="0">
-        <v>2</v>
-      </c>
+      <c r="A326" s="0"/>
+      <c r="B326" s="0"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="0"/>
     </row>
     <row outlineLevel="0" r="327">
-      <c r="A327" s="0">
-        <v>48</v>
-      </c>
-      <c r="B327" s="0">
-        <v>1</v>
-      </c>
-      <c r="C327" s="1">
-        <v>41393</v>
-      </c>
-      <c r="D327" s="0">
-        <v>2</v>
-      </c>
+      <c r="A327" s="0"/>
+      <c r="B327" s="0"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="0"/>
     </row>
     <row outlineLevel="0" r="328">
-      <c r="A328" s="0">
-        <v>48</v>
-      </c>
-      <c r="B328" s="0">
-        <v>1</v>
-      </c>
-      <c r="C328" s="1">
-        <v>41397</v>
-      </c>
-      <c r="D328" s="0">
-        <v>2</v>
-      </c>
+      <c r="A328" s="0"/>
+      <c r="B328" s="0"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="0"/>
     </row>
     <row outlineLevel="0" r="329">
-      <c r="A329" s="0">
-        <v>48</v>
-      </c>
-      <c r="B329" s="0">
-        <v>1</v>
-      </c>
-      <c r="C329" s="1">
-        <v>41401</v>
-      </c>
-      <c r="D329" s="0">
-        <v>2</v>
-      </c>
+      <c r="A329" s="0"/>
+      <c r="B329" s="0"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="0"/>
     </row>
     <row outlineLevel="0" r="330">
-      <c r="A330" s="0">
-        <v>48</v>
-      </c>
-      <c r="B330" s="0">
-        <v>1</v>
-      </c>
-      <c r="C330" s="1">
-        <v>41405</v>
-      </c>
-      <c r="D330" s="0">
-        <v>2</v>
-      </c>
+      <c r="A330" s="0"/>
+      <c r="B330" s="0"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="0"/>
     </row>
     <row outlineLevel="0" r="331">
-      <c r="A331" s="0">
-        <v>48</v>
-      </c>
-      <c r="B331" s="0">
-        <v>1</v>
-      </c>
-      <c r="C331" s="1">
-        <v>41409</v>
-      </c>
-      <c r="D331" s="0">
-        <v>2</v>
-      </c>
+      <c r="A331" s="0"/>
+      <c r="B331" s="0"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="0"/>
     </row>
     <row outlineLevel="0" r="332">
-      <c r="A332" s="0">
-        <v>48</v>
-      </c>
-      <c r="B332" s="0">
-        <v>1</v>
-      </c>
-      <c r="C332" s="1">
-        <v>41413</v>
-      </c>
-      <c r="D332" s="0">
-        <v>2</v>
-      </c>
+      <c r="A332" s="0"/>
+      <c r="B332" s="0"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="0"/>
     </row>
     <row outlineLevel="0" r="333">
-      <c r="A333" s="0">
-        <v>48</v>
-      </c>
-      <c r="B333" s="0">
-        <v>1</v>
-      </c>
-      <c r="C333" s="1">
-        <v>41417</v>
-      </c>
-      <c r="D333" s="0">
-        <v>2</v>
-      </c>
+      <c r="A333" s="0"/>
+      <c r="B333" s="0"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="0"/>
     </row>
     <row outlineLevel="0" r="334">
-      <c r="A334" s="0">
-        <v>48</v>
-      </c>
-      <c r="B334" s="0">
-        <v>1</v>
-      </c>
-      <c r="C334" s="1">
-        <v>41421</v>
-      </c>
-      <c r="D334" s="0">
-        <v>2</v>
-      </c>
+      <c r="A334" s="0"/>
+      <c r="B334" s="0"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="0"/>
     </row>
     <row outlineLevel="0" r="335">
-      <c r="A335" s="0">
-        <v>48</v>
-      </c>
-      <c r="B335" s="0">
-        <v>1</v>
-      </c>
-      <c r="C335" s="1">
-        <v>41425</v>
-      </c>
-      <c r="D335" s="0">
-        <v>2</v>
-      </c>
+      <c r="A335" s="0"/>
+      <c r="B335" s="0"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="0"/>
     </row>
     <row outlineLevel="0" r="336">
-      <c r="A336" s="0">
-        <v>48</v>
-      </c>
-      <c r="B336" s="0">
-        <v>1</v>
-      </c>
-      <c r="C336" s="1">
-        <v>41429</v>
-      </c>
-      <c r="D336" s="0">
-        <v>2</v>
-      </c>
+      <c r="A336" s="0"/>
+      <c r="B336" s="0"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="0"/>
     </row>
     <row outlineLevel="0" r="337">
-      <c r="A337" s="0">
-        <v>48</v>
-      </c>
-      <c r="B337" s="0">
-        <v>1</v>
-      </c>
-      <c r="C337" s="1">
-        <v>41433</v>
-      </c>
-      <c r="D337" s="0">
-        <v>2</v>
-      </c>
+      <c r="A337" s="0"/>
+      <c r="B337" s="0"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="0"/>
     </row>
     <row outlineLevel="0" r="338">
-      <c r="A338" s="0">
-        <v>48</v>
-      </c>
-      <c r="B338" s="0">
-        <v>1</v>
-      </c>
-      <c r="C338" s="1">
-        <v>41437</v>
-      </c>
-      <c r="D338" s="0">
-        <v>2</v>
-      </c>
+      <c r="A338" s="0"/>
+      <c r="B338" s="0"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="0"/>
     </row>
     <row outlineLevel="0" r="339">
-      <c r="A339" s="0">
-        <v>48</v>
-      </c>
-      <c r="B339" s="0">
-        <v>1</v>
-      </c>
-      <c r="C339" s="1">
-        <v>41441</v>
-      </c>
-      <c r="D339" s="0">
-        <v>2</v>
-      </c>
+      <c r="A339" s="0"/>
+      <c r="B339" s="0"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="0"/>
     </row>
     <row outlineLevel="0" r="340">
-      <c r="A340" s="0">
-        <v>48</v>
-      </c>
-      <c r="B340" s="0">
-        <v>1</v>
-      </c>
-      <c r="C340" s="1">
-        <v>41445</v>
-      </c>
-      <c r="D340" s="0">
-        <v>2</v>
-      </c>
+      <c r="A340" s="0"/>
+      <c r="B340" s="0"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="0"/>
     </row>
     <row outlineLevel="0" r="341">
-      <c r="A341" s="0">
-        <v>48</v>
-      </c>
-      <c r="B341" s="0">
-        <v>1</v>
-      </c>
-      <c r="C341" s="1">
-        <v>41449</v>
-      </c>
-      <c r="D341" s="0">
-        <v>2</v>
-      </c>
+      <c r="A341" s="0"/>
+      <c r="B341" s="0"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="0"/>
     </row>
     <row outlineLevel="0" r="342">
-      <c r="A342" s="0">
-        <v>48</v>
-      </c>
-      <c r="B342" s="0">
-        <v>1</v>
-      </c>
-      <c r="C342" s="1">
-        <v>41453</v>
-      </c>
-      <c r="D342" s="0">
-        <v>2</v>
-      </c>
+      <c r="A342" s="0"/>
+      <c r="B342" s="0"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="0"/>
     </row>
     <row outlineLevel="0" r="343">
-      <c r="A343" s="0">
-        <v>48</v>
-      </c>
-      <c r="B343" s="0">
-        <v>1</v>
-      </c>
-      <c r="C343" s="1">
-        <v>41457</v>
-      </c>
-      <c r="D343" s="0">
-        <v>2</v>
-      </c>
+      <c r="A343" s="0"/>
+      <c r="B343" s="0"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="0"/>
     </row>
     <row outlineLevel="0" r="344">
-      <c r="A344" s="0">
-        <v>50</v>
-      </c>
-      <c r="B344" s="0">
-        <v>1</v>
-      </c>
-      <c r="C344" s="1">
-        <v>41366</v>
-      </c>
-      <c r="D344" s="0">
-        <v>2</v>
-      </c>
+      <c r="A344" s="0"/>
+      <c r="B344" s="0"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="0"/>
     </row>
     <row outlineLevel="0" r="345">
-      <c r="A345" s="0">
-        <v>50</v>
-      </c>
-      <c r="B345" s="0">
-        <v>1</v>
-      </c>
-      <c r="C345" s="1">
-        <v>41370</v>
-      </c>
-      <c r="D345" s="0">
-        <v>2</v>
-      </c>
+      <c r="A345" s="0"/>
+      <c r="B345" s="0"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="0"/>
     </row>
     <row outlineLevel="0" r="346">
-      <c r="A346" s="0">
-        <v>50</v>
-      </c>
-      <c r="B346" s="0">
-        <v>1</v>
-      </c>
-      <c r="C346" s="1">
-        <v>41374</v>
-      </c>
-      <c r="D346" s="0">
-        <v>2</v>
-      </c>
+      <c r="A346" s="0"/>
+      <c r="B346" s="0"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="0"/>
     </row>
     <row outlineLevel="0" r="347">
-      <c r="A347" s="0">
-        <v>50</v>
-      </c>
-      <c r="B347" s="0">
-        <v>1</v>
-      </c>
-      <c r="C347" s="1">
-        <v>41378</v>
-      </c>
-      <c r="D347" s="0">
-        <v>2</v>
-      </c>
+      <c r="A347" s="0"/>
+      <c r="B347" s="0"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="0"/>
     </row>
     <row outlineLevel="0" r="348">
-      <c r="A348" s="0">
-        <v>50</v>
-      </c>
-      <c r="B348" s="0">
-        <v>1</v>
-      </c>
-      <c r="C348" s="1">
-        <v>41382</v>
-      </c>
-      <c r="D348" s="0">
-        <v>2</v>
-      </c>
+      <c r="A348" s="0"/>
+      <c r="B348" s="0"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="0"/>
     </row>
     <row outlineLevel="0" r="349">
-      <c r="A349" s="0">
-        <v>50</v>
-      </c>
-      <c r="B349" s="0">
-        <v>1</v>
-      </c>
-      <c r="C349" s="1">
-        <v>41386</v>
-      </c>
-      <c r="D349" s="0">
-        <v>2</v>
-      </c>
+      <c r="A349" s="0"/>
+      <c r="B349" s="0"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="0"/>
     </row>
     <row outlineLevel="0" r="350">
-      <c r="A350" s="0">
-        <v>50</v>
-      </c>
-      <c r="B350" s="0">
-        <v>1</v>
-      </c>
-      <c r="C350" s="1">
-        <v>41390</v>
-      </c>
-      <c r="D350" s="0">
-        <v>2</v>
-      </c>
+      <c r="A350" s="0"/>
+      <c r="B350" s="0"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="0"/>
     </row>
     <row outlineLevel="0" r="351">
-      <c r="A351" s="0">
-        <v>50</v>
-      </c>
-      <c r="B351" s="0">
-        <v>1</v>
-      </c>
-      <c r="C351" s="1">
-        <v>41394</v>
-      </c>
-      <c r="D351" s="0">
-        <v>2</v>
-      </c>
+      <c r="A351" s="0"/>
+      <c r="B351" s="0"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="0"/>
     </row>
     <row outlineLevel="0" r="352">
-      <c r="A352" s="0">
-        <v>50</v>
-      </c>
-      <c r="B352" s="0">
-        <v>1</v>
-      </c>
-      <c r="C352" s="1">
-        <v>41398</v>
-      </c>
-      <c r="D352" s="0">
-        <v>2</v>
-      </c>
+      <c r="A352" s="0"/>
+      <c r="B352" s="0"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="0"/>
     </row>
     <row outlineLevel="0" r="353">
-      <c r="A353" s="0">
-        <v>50</v>
-      </c>
-      <c r="B353" s="0">
-        <v>1</v>
-      </c>
-      <c r="C353" s="1">
-        <v>41402</v>
-      </c>
-      <c r="D353" s="0">
-        <v>2</v>
-      </c>
+      <c r="A353" s="0"/>
+      <c r="B353" s="0"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="0"/>
     </row>
     <row outlineLevel="0" r="354">
-      <c r="A354" s="0">
-        <v>50</v>
-      </c>
-      <c r="B354" s="0">
-        <v>1</v>
-      </c>
-      <c r="C354" s="1">
-        <v>41406</v>
-      </c>
-      <c r="D354" s="0">
-        <v>2</v>
-      </c>
+      <c r="A354" s="0"/>
+      <c r="B354" s="0"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="0"/>
     </row>
     <row outlineLevel="0" r="355">
-      <c r="A355" s="0">
-        <v>50</v>
-      </c>
-      <c r="B355" s="0">
-        <v>1</v>
-      </c>
-      <c r="C355" s="1">
-        <v>41410</v>
-      </c>
-      <c r="D355" s="0">
-        <v>2</v>
-      </c>
+      <c r="A355" s="0"/>
+      <c r="B355" s="0"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="0"/>
     </row>
     <row outlineLevel="0" r="356">
-      <c r="A356" s="0">
-        <v>50</v>
-      </c>
-      <c r="B356" s="0">
-        <v>1</v>
-      </c>
-      <c r="C356" s="1">
-        <v>41414</v>
-      </c>
-      <c r="D356" s="0">
-        <v>2</v>
-      </c>
+      <c r="A356" s="0"/>
+      <c r="B356" s="0"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="0"/>
     </row>
     <row outlineLevel="0" r="357">
-      <c r="A357" s="0">
-        <v>50</v>
-      </c>
-      <c r="B357" s="0">
-        <v>1</v>
-      </c>
-      <c r="C357" s="1">
-        <v>41418</v>
-      </c>
-      <c r="D357" s="0">
-        <v>2</v>
-      </c>
+      <c r="A357" s="0"/>
+      <c r="B357" s="0"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="0"/>
     </row>
     <row outlineLevel="0" r="358">
-      <c r="A358" s="0">
-        <v>50</v>
-      </c>
-      <c r="B358" s="0">
-        <v>1</v>
-      </c>
-      <c r="C358" s="1">
-        <v>41422</v>
-      </c>
-      <c r="D358" s="0">
-        <v>2</v>
-      </c>
+      <c r="A358" s="0"/>
+      <c r="B358" s="0"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="0"/>
     </row>
     <row outlineLevel="0" r="359">
-      <c r="A359" s="0">
-        <v>50</v>
-      </c>
-      <c r="B359" s="0">
-        <v>1</v>
-      </c>
-      <c r="C359" s="1">
-        <v>41426</v>
-      </c>
-      <c r="D359" s="0">
-        <v>2</v>
-      </c>
+      <c r="A359" s="0"/>
+      <c r="B359" s="0"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="0"/>
     </row>
     <row outlineLevel="0" r="360">
-      <c r="A360" s="0">
-        <v>50</v>
-      </c>
-      <c r="B360" s="0">
-        <v>1</v>
-      </c>
-      <c r="C360" s="1">
-        <v>41430</v>
-      </c>
-      <c r="D360" s="0">
-        <v>2</v>
-      </c>
+      <c r="A360" s="0"/>
+      <c r="B360" s="0"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="0"/>
     </row>
     <row outlineLevel="0" r="361">
-      <c r="A361" s="0">
-        <v>50</v>
-      </c>
-      <c r="B361" s="0">
-        <v>1</v>
-      </c>
-      <c r="C361" s="1">
-        <v>41434</v>
-      </c>
-      <c r="D361" s="0">
-        <v>2</v>
-      </c>
+      <c r="A361" s="0"/>
+      <c r="B361" s="0"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="0"/>
     </row>
     <row outlineLevel="0" r="362">
-      <c r="A362" s="0">
-        <v>50</v>
-      </c>
-      <c r="B362" s="0">
-        <v>1</v>
-      </c>
-      <c r="C362" s="1">
-        <v>41438</v>
-      </c>
-      <c r="D362" s="0">
-        <v>2</v>
-      </c>
+      <c r="A362" s="0"/>
+      <c r="B362" s="0"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="0"/>
     </row>
     <row outlineLevel="0" r="363">
-      <c r="A363" s="0">
-        <v>50</v>
-      </c>
-      <c r="B363" s="0">
-        <v>1</v>
-      </c>
-      <c r="C363" s="1">
-        <v>41442</v>
-      </c>
-      <c r="D363" s="0">
-        <v>2</v>
-      </c>
+      <c r="A363" s="0"/>
+      <c r="B363" s="0"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="0"/>
     </row>
     <row outlineLevel="0" r="364">
-      <c r="A364" s="0">
-        <v>50</v>
-      </c>
-      <c r="B364" s="0">
-        <v>1</v>
-      </c>
-      <c r="C364" s="1">
-        <v>41446</v>
-      </c>
-      <c r="D364" s="0">
-        <v>2</v>
-      </c>
+      <c r="A364" s="0"/>
+      <c r="B364" s="0"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="0"/>
     </row>
     <row outlineLevel="0" r="365">
-      <c r="A365" s="0">
-        <v>50</v>
-      </c>
-      <c r="B365" s="0">
-        <v>1</v>
-      </c>
-      <c r="C365" s="1">
-        <v>41450</v>
-      </c>
-      <c r="D365" s="0">
-        <v>2</v>
-      </c>
+      <c r="A365" s="0"/>
+      <c r="B365" s="0"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="0"/>
     </row>
     <row outlineLevel="0" r="366">
-      <c r="A366" s="0">
-        <v>50</v>
-      </c>
-      <c r="B366" s="0">
-        <v>1</v>
-      </c>
-      <c r="C366" s="1">
-        <v>41454</v>
-      </c>
-      <c r="D366" s="0">
-        <v>2</v>
-      </c>
+      <c r="A366" s="0"/>
+      <c r="B366" s="0"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="0"/>
     </row>
     <row outlineLevel="0" r="367">
-      <c r="A367" s="0">
-        <v>50</v>
-      </c>
-      <c r="B367" s="0">
-        <v>1</v>
-      </c>
-      <c r="C367" s="1">
-        <v>41458</v>
-      </c>
-      <c r="D367" s="0">
-        <v>2</v>
-      </c>
+      <c r="A367" s="0"/>
+      <c r="B367" s="0"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="0"/>
     </row>
     <row outlineLevel="0" r="368">
-      <c r="A368" s="0">
-        <v>51</v>
-      </c>
-      <c r="B368" s="0">
-        <v>1</v>
-      </c>
-      <c r="C368" s="1">
-        <v>41365</v>
-      </c>
-      <c r="D368" s="0">
-        <v>2</v>
-      </c>
+      <c r="A368" s="0"/>
+      <c r="B368" s="0"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="0"/>
     </row>
     <row outlineLevel="0" r="369">
-      <c r="A369" s="0">
-        <v>51</v>
-      </c>
-      <c r="B369" s="0">
-        <v>1</v>
-      </c>
-      <c r="C369" s="1">
-        <v>41369</v>
-      </c>
-      <c r="D369" s="0">
-        <v>2</v>
-      </c>
+      <c r="A369" s="0"/>
+      <c r="B369" s="0"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="0"/>
     </row>
     <row outlineLevel="0" r="370">
-      <c r="A370" s="0">
-        <v>51</v>
-      </c>
-      <c r="B370" s="0">
-        <v>1</v>
-      </c>
-      <c r="C370" s="1">
-        <v>41373</v>
-      </c>
-      <c r="D370" s="0">
-        <v>2</v>
-      </c>
+      <c r="A370" s="0"/>
+      <c r="B370" s="0"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="0"/>
     </row>
     <row outlineLevel="0" r="371">
-      <c r="A371" s="0">
-        <v>51</v>
-      </c>
-      <c r="B371" s="0">
-        <v>1</v>
-      </c>
-      <c r="C371" s="1">
-        <v>41377</v>
-      </c>
-      <c r="D371" s="0">
-        <v>2</v>
-      </c>
+      <c r="A371" s="0"/>
+      <c r="B371" s="0"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="0"/>
     </row>
     <row outlineLevel="0" r="372">
-      <c r="A372" s="0">
-        <v>51</v>
-      </c>
-      <c r="B372" s="0">
-        <v>1</v>
-      </c>
-      <c r="C372" s="1">
-        <v>41381</v>
-      </c>
-      <c r="D372" s="0">
-        <v>2</v>
-      </c>
+      <c r="A372" s="0"/>
+      <c r="B372" s="0"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="0"/>
     </row>
     <row outlineLevel="0" r="373">
-      <c r="A373" s="0">
-        <v>51</v>
-      </c>
-      <c r="B373" s="0">
-        <v>1</v>
-      </c>
-      <c r="C373" s="1">
-        <v>41385</v>
-      </c>
-      <c r="D373" s="0">
-        <v>2</v>
-      </c>
+      <c r="A373" s="0"/>
+      <c r="B373" s="0"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="0"/>
     </row>
     <row outlineLevel="0" r="374">
-      <c r="A374" s="0">
-        <v>51</v>
-      </c>
-      <c r="B374" s="0">
-        <v>1</v>
-      </c>
-      <c r="C374" s="1">
-        <v>41389</v>
-      </c>
-      <c r="D374" s="0">
-        <v>2</v>
-      </c>
+      <c r="A374" s="0"/>
+      <c r="B374" s="0"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="0"/>
     </row>
     <row outlineLevel="0" r="375">
-      <c r="A375" s="0">
-        <v>51</v>
-      </c>
-      <c r="B375" s="0">
-        <v>1</v>
-      </c>
-      <c r="C375" s="1">
-        <v>41393</v>
-      </c>
-      <c r="D375" s="0">
-        <v>2</v>
-      </c>
+      <c r="A375" s="0"/>
+      <c r="B375" s="0"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="0"/>
     </row>
     <row outlineLevel="0" r="376">
-      <c r="A376" s="0">
-        <v>51</v>
-      </c>
-      <c r="B376" s="0">
-        <v>1</v>
-      </c>
-      <c r="C376" s="1">
-        <v>41397</v>
-      </c>
-      <c r="D376" s="0">
-        <v>2</v>
-      </c>
+      <c r="A376" s="0"/>
+      <c r="B376" s="0"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="0"/>
     </row>
     <row outlineLevel="0" r="377">
-      <c r="A377" s="0">
-        <v>51</v>
-      </c>
-      <c r="B377" s="0">
-        <v>1</v>
-      </c>
-      <c r="C377" s="1">
-        <v>41401</v>
-      </c>
-      <c r="D377" s="0">
-        <v>2</v>
-      </c>
+      <c r="A377" s="0"/>
+      <c r="B377" s="0"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="0"/>
     </row>
     <row outlineLevel="0" r="378">
-      <c r="A378" s="0">
-        <v>51</v>
-      </c>
-      <c r="B378" s="0">
-        <v>1</v>
-      </c>
-      <c r="C378" s="1">
-        <v>41405</v>
-      </c>
-      <c r="D378" s="0">
-        <v>2</v>
-      </c>
+      <c r="A378" s="0"/>
+      <c r="B378" s="0"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="0"/>
     </row>
     <row outlineLevel="0" r="379">
-      <c r="A379" s="0">
-        <v>51</v>
-      </c>
-      <c r="B379" s="0">
-        <v>1</v>
-      </c>
-      <c r="C379" s="1">
-        <v>41409</v>
-      </c>
-      <c r="D379" s="0">
-        <v>2</v>
-      </c>
+      <c r="A379" s="0"/>
+      <c r="B379" s="0"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="0"/>
     </row>
     <row outlineLevel="0" r="380">
-      <c r="A380" s="0">
-        <v>51</v>
-      </c>
-      <c r="B380" s="0">
-        <v>1</v>
-      </c>
-      <c r="C380" s="1">
-        <v>41413</v>
-      </c>
-      <c r="D380" s="0">
-        <v>2</v>
-      </c>
+      <c r="A380" s="0"/>
+      <c r="B380" s="0"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="0"/>
     </row>
     <row outlineLevel="0" r="381">
-      <c r="A381" s="0">
-        <v>51</v>
-      </c>
-      <c r="B381" s="0">
-        <v>1</v>
-      </c>
-      <c r="C381" s="1">
-        <v>41417</v>
-      </c>
-      <c r="D381" s="0">
-        <v>2</v>
-      </c>
+      <c r="A381" s="0"/>
+      <c r="B381" s="0"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="0"/>
     </row>
     <row outlineLevel="0" r="382">
-      <c r="A382" s="0">
-        <v>51</v>
-      </c>
-      <c r="B382" s="0">
-        <v>1</v>
-      </c>
-      <c r="C382" s="1">
-        <v>41421</v>
-      </c>
-      <c r="D382" s="0">
-        <v>2</v>
-      </c>
+      <c r="A382" s="0"/>
+      <c r="B382" s="0"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="0"/>
     </row>
     <row outlineLevel="0" r="383">
-      <c r="A383" s="0">
-        <v>51</v>
-      </c>
-      <c r="B383" s="0">
-        <v>1</v>
-      </c>
-      <c r="C383" s="1">
-        <v>41425</v>
-      </c>
-      <c r="D383" s="0">
-        <v>2</v>
-      </c>
+      <c r="A383" s="0"/>
+      <c r="B383" s="0"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="0"/>
     </row>
     <row outlineLevel="0" r="384">
-      <c r="A384" s="0">
-        <v>51</v>
-      </c>
-      <c r="B384" s="0">
-        <v>1</v>
-      </c>
-      <c r="C384" s="1">
-        <v>41429</v>
-      </c>
-      <c r="D384" s="0">
-        <v>2</v>
-      </c>
+      <c r="A384" s="0"/>
+      <c r="B384" s="0"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="0"/>
     </row>
     <row outlineLevel="0" r="385">
-      <c r="A385" s="0">
-        <v>51</v>
-      </c>
-      <c r="B385" s="0">
-        <v>1</v>
-      </c>
-      <c r="C385" s="1">
-        <v>41433</v>
-      </c>
-      <c r="D385" s="0">
-        <v>2</v>
-      </c>
+      <c r="A385" s="0"/>
+      <c r="B385" s="0"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="0"/>
     </row>
     <row outlineLevel="0" r="386">
-      <c r="A386" s="0">
-        <v>51</v>
-      </c>
-      <c r="B386" s="0">
-        <v>1</v>
-      </c>
-      <c r="C386" s="1">
-        <v>41437</v>
-      </c>
-      <c r="D386" s="0">
-        <v>2</v>
-      </c>
+      <c r="A386" s="0"/>
+      <c r="B386" s="0"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="0"/>
     </row>
     <row outlineLevel="0" r="387">
-      <c r="A387" s="0">
-        <v>51</v>
-      </c>
-      <c r="B387" s="0">
-        <v>1</v>
-      </c>
-      <c r="C387" s="1">
-        <v>41441</v>
-      </c>
-      <c r="D387" s="0">
-        <v>2</v>
-      </c>
+      <c r="A387" s="0"/>
+      <c r="B387" s="0"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="0"/>
     </row>
     <row outlineLevel="0" r="388">
-      <c r="A388" s="0">
-        <v>51</v>
-      </c>
-      <c r="B388" s="0">
-        <v>1</v>
-      </c>
-      <c r="C388" s="1">
-        <v>41445</v>
-      </c>
-      <c r="D388" s="0">
-        <v>2</v>
-      </c>
+      <c r="A388" s="0"/>
+      <c r="B388" s="0"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="0"/>
     </row>
     <row outlineLevel="0" r="389">
-      <c r="A389" s="0">
-        <v>51</v>
-      </c>
-      <c r="B389" s="0">
-        <v>1</v>
-      </c>
-      <c r="C389" s="1">
-        <v>41449</v>
-      </c>
-      <c r="D389" s="0">
-        <v>2</v>
-      </c>
+      <c r="A389" s="0"/>
+      <c r="B389" s="0"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="0"/>
     </row>
     <row outlineLevel="0" r="390">
-      <c r="A390" s="0">
-        <v>51</v>
-      </c>
-      <c r="B390" s="0">
-        <v>1</v>
-      </c>
-      <c r="C390" s="1">
-        <v>41453</v>
-      </c>
-      <c r="D390" s="0">
-        <v>2</v>
-      </c>
+      <c r="A390" s="0"/>
+      <c r="B390" s="0"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="0"/>
     </row>
     <row outlineLevel="0" r="391">
-      <c r="A391" s="0">
-        <v>51</v>
-      </c>
-      <c r="B391" s="0">
-        <v>1</v>
-      </c>
-      <c r="C391" s="1">
-        <v>41457</v>
-      </c>
-      <c r="D391" s="0">
-        <v>2</v>
-      </c>
+      <c r="A391" s="0"/>
+      <c r="B391" s="0"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="0"/>
     </row>
     <row outlineLevel="0" r="392">
-      <c r="A392" s="0">
-        <v>51</v>
-      </c>
-      <c r="B392" s="0">
-        <v>1</v>
-      </c>
-      <c r="C392" s="1">
-        <v>41366</v>
-      </c>
-      <c r="D392" s="0">
-        <v>2</v>
-      </c>
+      <c r="A392" s="0"/>
+      <c r="B392" s="0"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="0"/>
     </row>
     <row outlineLevel="0" r="393">
-      <c r="A393" s="0">
-        <v>51</v>
-      </c>
-      <c r="B393" s="0">
-        <v>1</v>
-      </c>
-      <c r="C393" s="1">
-        <v>41370</v>
-      </c>
-      <c r="D393" s="0">
-        <v>2</v>
-      </c>
+      <c r="A393" s="0"/>
+      <c r="B393" s="0"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="0"/>
     </row>
     <row outlineLevel="0" r="394">
-      <c r="A394" s="0">
-        <v>51</v>
-      </c>
-      <c r="B394" s="0">
-        <v>1</v>
-      </c>
-      <c r="C394" s="1">
-        <v>41374</v>
-      </c>
-      <c r="D394" s="0">
-        <v>2</v>
-      </c>
+      <c r="A394" s="0"/>
+      <c r="B394" s="0"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="0"/>
     </row>
     <row outlineLevel="0" r="395">
-      <c r="A395" s="0">
-        <v>51</v>
-      </c>
-      <c r="B395" s="0">
-        <v>1</v>
-      </c>
-      <c r="C395" s="1">
-        <v>41378</v>
-      </c>
-      <c r="D395" s="0">
-        <v>2</v>
-      </c>
+      <c r="A395" s="0"/>
+      <c r="B395" s="0"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="0"/>
     </row>
     <row outlineLevel="0" r="396">
-      <c r="A396" s="0">
-        <v>51</v>
-      </c>
-      <c r="B396" s="0">
-        <v>1</v>
-      </c>
-      <c r="C396" s="1">
-        <v>41382</v>
-      </c>
-      <c r="D396" s="0">
-        <v>2</v>
-      </c>
+      <c r="A396" s="0"/>
+      <c r="B396" s="0"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="0"/>
     </row>
     <row outlineLevel="0" r="397">
-      <c r="A397" s="0">
-        <v>51</v>
-      </c>
-      <c r="B397" s="0">
-        <v>1</v>
-      </c>
-      <c r="C397" s="1">
-        <v>41386</v>
-      </c>
-      <c r="D397" s="0">
-        <v>2</v>
-      </c>
+      <c r="A397" s="0"/>
+      <c r="B397" s="0"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="0"/>
     </row>
     <row outlineLevel="0" r="398">
-      <c r="A398" s="0">
-        <v>51</v>
-      </c>
-      <c r="B398" s="0">
-        <v>1</v>
-      </c>
-      <c r="C398" s="1">
-        <v>41390</v>
-      </c>
-      <c r="D398" s="0">
-        <v>2</v>
-      </c>
+      <c r="A398" s="0"/>
+      <c r="B398" s="0"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="0"/>
     </row>
     <row outlineLevel="0" r="399">
-      <c r="A399" s="0">
-        <v>51</v>
-      </c>
-      <c r="B399" s="0">
-        <v>1</v>
-      </c>
-      <c r="C399" s="1">
-        <v>41394</v>
-      </c>
-      <c r="D399" s="0">
-        <v>2</v>
-      </c>
+      <c r="A399" s="0"/>
+      <c r="B399" s="0"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="0"/>
     </row>
     <row outlineLevel="0" r="400">
-      <c r="A400" s="0">
-        <v>51</v>
-      </c>
-      <c r="B400" s="0">
-        <v>1</v>
-      </c>
-      <c r="C400" s="1">
-        <v>41398</v>
-      </c>
-      <c r="D400" s="0">
-        <v>2</v>
-      </c>
+      <c r="A400" s="0"/>
+      <c r="B400" s="0"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="0"/>
     </row>
     <row outlineLevel="0" r="401">
-      <c r="A401" s="0">
-        <v>51</v>
-      </c>
-      <c r="B401" s="0">
-        <v>1</v>
-      </c>
-      <c r="C401" s="1">
-        <v>41402</v>
-      </c>
-      <c r="D401" s="0">
-        <v>2</v>
-      </c>
+      <c r="A401" s="0"/>
+      <c r="B401" s="0"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="0"/>
     </row>
     <row outlineLevel="0" r="402">
-      <c r="A402" s="0">
-        <v>51</v>
-      </c>
-      <c r="B402" s="0">
-        <v>1</v>
-      </c>
-      <c r="C402" s="1">
-        <v>41406</v>
-      </c>
-      <c r="D402" s="0">
-        <v>2</v>
-      </c>
+      <c r="A402" s="0"/>
+      <c r="B402" s="0"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="0"/>
     </row>
     <row outlineLevel="0" r="403">
-      <c r="A403" s="0">
-        <v>51</v>
-      </c>
-      <c r="B403" s="0">
-        <v>1</v>
-      </c>
-      <c r="C403" s="1">
-        <v>41410</v>
-      </c>
-      <c r="D403" s="0">
-        <v>2</v>
-      </c>
+      <c r="A403" s="0"/>
+      <c r="B403" s="0"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="0"/>
     </row>
     <row outlineLevel="0" r="404">
-      <c r="A404" s="0">
-        <v>51</v>
-      </c>
-      <c r="B404" s="0">
-        <v>1</v>
-      </c>
-      <c r="C404" s="1">
-        <v>41414</v>
-      </c>
-      <c r="D404" s="0">
-        <v>2</v>
-      </c>
+      <c r="A404" s="0"/>
+      <c r="B404" s="0"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="0"/>
     </row>
     <row outlineLevel="0" r="405">
-      <c r="A405" s="0">
-        <v>51</v>
-      </c>
-      <c r="B405" s="0">
-        <v>1</v>
-      </c>
-      <c r="C405" s="1">
-        <v>41418</v>
-      </c>
-      <c r="D405" s="0">
-        <v>2</v>
-      </c>
+      <c r="A405" s="0"/>
+      <c r="B405" s="0"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="0"/>
     </row>
     <row outlineLevel="0" r="406">
-      <c r="A406" s="0">
-        <v>51</v>
-      </c>
-      <c r="B406" s="0">
-        <v>1</v>
-      </c>
-      <c r="C406" s="1">
-        <v>41422</v>
-      </c>
-      <c r="D406" s="0">
-        <v>2</v>
-      </c>
+      <c r="A406" s="0"/>
+      <c r="B406" s="0"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="0"/>
     </row>
     <row outlineLevel="0" r="407">
-      <c r="A407" s="0">
-        <v>51</v>
-      </c>
-      <c r="B407" s="0">
-        <v>1</v>
-      </c>
-      <c r="C407" s="1">
-        <v>41426</v>
-      </c>
-      <c r="D407" s="0">
-        <v>2</v>
-      </c>
+      <c r="A407" s="0"/>
+      <c r="B407" s="0"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="0"/>
     </row>
     <row outlineLevel="0" r="408">
-      <c r="A408" s="0">
-        <v>51</v>
-      </c>
-      <c r="B408" s="0">
-        <v>1</v>
-      </c>
-      <c r="C408" s="1">
-        <v>41430</v>
-      </c>
-      <c r="D408" s="0">
-        <v>2</v>
-      </c>
+      <c r="A408" s="0"/>
+      <c r="B408" s="0"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="0"/>
     </row>
     <row outlineLevel="0" r="409">
-      <c r="A409" s="0">
-        <v>51</v>
-      </c>
-      <c r="B409" s="0">
-        <v>1</v>
-      </c>
-      <c r="C409" s="1">
-        <v>41434</v>
-      </c>
-      <c r="D409" s="0">
-        <v>2</v>
-      </c>
+      <c r="A409" s="0"/>
+      <c r="B409" s="0"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="0"/>
     </row>
     <row outlineLevel="0" r="410">
-      <c r="A410" s="0">
-        <v>51</v>
-      </c>
-      <c r="B410" s="0">
-        <v>1</v>
-      </c>
-      <c r="C410" s="1">
-        <v>41438</v>
-      </c>
-      <c r="D410" s="0">
-        <v>2</v>
-      </c>
+      <c r="A410" s="0"/>
+      <c r="B410" s="0"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="0"/>
     </row>
     <row outlineLevel="0" r="411">
-      <c r="A411" s="0">
-        <v>51</v>
-      </c>
-      <c r="B411" s="0">
-        <v>1</v>
-      </c>
-      <c r="C411" s="1">
-        <v>41442</v>
-      </c>
-      <c r="D411" s="0">
-        <v>2</v>
-      </c>
+      <c r="A411" s="0"/>
+      <c r="B411" s="0"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="0"/>
     </row>
     <row outlineLevel="0" r="412">
-      <c r="A412" s="0">
-        <v>51</v>
-      </c>
-      <c r="B412" s="0">
-        <v>1</v>
-      </c>
-      <c r="C412" s="1">
-        <v>41446</v>
-      </c>
-      <c r="D412" s="0">
-        <v>2</v>
-      </c>
+      <c r="A412" s="0"/>
+      <c r="B412" s="0"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="0"/>
     </row>
     <row outlineLevel="0" r="413">
-      <c r="A413" s="0">
-        <v>51</v>
-      </c>
-      <c r="B413" s="0">
-        <v>1</v>
-      </c>
-      <c r="C413" s="1">
-        <v>41450</v>
-      </c>
-      <c r="D413" s="0">
-        <v>2</v>
-      </c>
+      <c r="A413" s="0"/>
+      <c r="B413" s="0"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="0"/>
     </row>
     <row outlineLevel="0" r="414">
-      <c r="A414" s="0">
-        <v>51</v>
-      </c>
-      <c r="B414" s="0">
-        <v>1</v>
-      </c>
-      <c r="C414" s="1">
-        <v>41454</v>
-      </c>
-      <c r="D414" s="0">
-        <v>2</v>
-      </c>
+      <c r="A414" s="0"/>
+      <c r="B414" s="0"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="0"/>
     </row>
     <row outlineLevel="0" r="415">
-      <c r="A415" s="0">
-        <v>51</v>
-      </c>
-      <c r="B415" s="0">
-        <v>1</v>
-      </c>
-      <c r="C415" s="1">
-        <v>41458</v>
-      </c>
-      <c r="D415" s="0">
-        <v>2</v>
-      </c>
+      <c r="A415" s="0"/>
+      <c r="B415" s="0"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
